--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
-  <si>
-    <t>201332147</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="121">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -364,13 +361,34 @@
   </si>
   <si>
     <t>February</t>
+  </si>
+  <si>
+    <t>QA11_HowOften_RoutineFrequencyType</t>
+  </si>
+  <si>
+    <t>QA10_HowOften_RoutineFrequencyType</t>
+  </si>
+  <si>
+    <t>QA12_ResidentOrders_CreateAnOrderWithFrequencyPRN</t>
+  </si>
+  <si>
+    <t>PRN</t>
+  </si>
+  <si>
+    <t>201332147-1</t>
+  </si>
+  <si>
+    <t>QA13_ResidentOrders_CreateAnOrderWithFrequencyPRNEveryHour</t>
+  </si>
+  <si>
+    <t>PRN Every (x) Hour(s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,8 +410,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +443,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -432,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -460,6 +491,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -735,7 +775,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -743,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO4" workbookViewId="0">
-      <selection activeCell="BA12" sqref="BA12"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +804,9 @@
     <col min="14" max="14" width="18.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="18.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" style="1" customWidth="1"/>
-    <col min="17" max="22" width="18.140625" style="1" customWidth="1"/>
+    <col min="17" max="20" width="18.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" style="1" customWidth="1"/>
     <col min="23" max="23" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.140625" style="1"/>
@@ -777,25 +819,25 @@
     <col min="46" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
@@ -803,522 +845,2137 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="5" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="11"/>
+    </row>
+    <row r="5" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="6" t="s">
+    <row r="7" spans="1:63" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="M7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" s="1">
         <v>5</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="S7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="8" t="s">
+      <c r="X7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="X7" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="Y7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13"/>
+    </row>
+    <row r="10" spans="1:63" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:54" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" s="7" t="s">
+      <c r="U11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="V11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="W11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="X11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="Y11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Z11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Z11" s="7" t="s">
+      <c r="AA11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AA11" s="7" t="s">
+      <c r="AB11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AB11" s="7" t="s">
+      <c r="AC11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AC11" s="7" t="s">
+      <c r="AD11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AD11" s="7" t="s">
+      <c r="AE11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AE11" s="7" t="s">
+      <c r="AF11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AF11" s="7" t="s">
+      <c r="AG11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AG11" s="7" t="s">
+      <c r="AH11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AH11" s="7" t="s">
+      <c r="AI11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AI11" s="7" t="s">
+      <c r="AJ11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AJ11" s="7" t="s">
+      <c r="AK11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AK11" s="7" t="s">
+      <c r="AL11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AL11" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="AM11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AN11" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="AO11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AP11" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="AQ11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AR11" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="AS11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AT11" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="AU11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AV11" s="7" t="s">
+      <c r="AW11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AW11" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="AX11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY11" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AY11" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="AZ11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA11" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BA11" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="BB11" s="7"/>
     </row>
-    <row r="12" spans="1:54" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
+    <row r="12" spans="1:63" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1">
         <v>5</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="P12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="13"/>
+      <c r="BB13" s="13"/>
+    </row>
+    <row r="14" spans="1:63" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB15" s="7"/>
+      <c r="BC15" s="7"/>
+      <c r="BD15" s="7"/>
+      <c r="BE15" s="7"/>
+      <c r="BF15" s="7"/>
+      <c r="BG15" s="7"/>
+      <c r="BH15" s="7"/>
+      <c r="BI15" s="7"/>
+      <c r="BJ15" s="7"/>
+      <c r="BK15" s="7"/>
+    </row>
+    <row r="16" spans="1:63" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="J16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK16" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN16" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="7"/>
+      <c r="BD19" s="7"/>
+      <c r="BE19" s="7"/>
+      <c r="BF19" s="7"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="7"/>
+    </row>
+    <row r="20" spans="1:60" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="J20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8"/>
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="8"/>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="8"/>
+      <c r="AY20" s="8"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="13"/>
+      <c r="BE21" s="13"/>
+      <c r="BF21" s="13"/>
+      <c r="BG21" s="13"/>
+      <c r="BH21" s="13"/>
+    </row>
+    <row r="22" spans="1:60" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA23" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="J24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV24" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY24" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA24" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="13"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="13"/>
+      <c r="AS25" s="13"/>
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="13"/>
+      <c r="AW25" s="13"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="13"/>
+      <c r="AZ25" s="13"/>
+      <c r="BA25" s="13"/>
+    </row>
+    <row r="26" spans="1:60" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA27" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="J28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="V28" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="U12" s="8" t="s">
+      <c r="W28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="X28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC28" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>10</v>
-      </c>
-      <c r="AB12" s="8" t="s">
+      <c r="AD28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ28" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AC12" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF12" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK12" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN12" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU12" s="8" t="s">
+      <c r="AR28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW28" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AV12" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW12" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX12" s="8" t="s">
+      <c r="AX28" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY28" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AY12" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA12" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="AZ28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA28" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="13"/>
+      <c r="BA29" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="172">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -382,13 +382,166 @@
   </si>
   <si>
     <t>PRN Every (x) Hour(s)</t>
+  </si>
+  <si>
+    <t>frequency1</t>
+  </si>
+  <si>
+    <t>Once a Day</t>
+  </si>
+  <si>
+    <t>frequency2</t>
+  </si>
+  <si>
+    <t>frequency3</t>
+  </si>
+  <si>
+    <t>frequency4</t>
+  </si>
+  <si>
+    <t>frequency5</t>
+  </si>
+  <si>
+    <t>frequency6</t>
+  </si>
+  <si>
+    <t>Twice a Day</t>
+  </si>
+  <si>
+    <t>Three Times a Day</t>
+  </si>
+  <si>
+    <t>Four Times a Day</t>
+  </si>
+  <si>
+    <t>Five Times a Day</t>
+  </si>
+  <si>
+    <t>Six Times a Day</t>
+  </si>
+  <si>
+    <t>frequencyTexttype</t>
+  </si>
+  <si>
+    <t>frequencyTexttype1</t>
+  </si>
+  <si>
+    <t>text Box</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>timeInADayTime</t>
+  </si>
+  <si>
+    <t>timeInADayShift</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>08:00 am</t>
+  </si>
+  <si>
+    <t>frequency8</t>
+  </si>
+  <si>
+    <t>Bed Time</t>
+  </si>
+  <si>
+    <t>frequency9</t>
+  </si>
+  <si>
+    <t>frequency10</t>
+  </si>
+  <si>
+    <t>frequency11</t>
+  </si>
+  <si>
+    <t>frequency12</t>
+  </si>
+  <si>
+    <t>frequency13</t>
+  </si>
+  <si>
+    <t>frequency14</t>
+  </si>
+  <si>
+    <t>Every Hour</t>
+  </si>
+  <si>
+    <t>Every Two Hours</t>
+  </si>
+  <si>
+    <t>Every Three Hours</t>
+  </si>
+  <si>
+    <t>Every Four Hours</t>
+  </si>
+  <si>
+    <t>Every Six Hours</t>
+  </si>
+  <si>
+    <t>Every Eight Hours</t>
+  </si>
+  <si>
+    <t>frequency15</t>
+  </si>
+  <si>
+    <t>Every Twelve Hours</t>
+  </si>
+  <si>
+    <t>201332142-1</t>
+  </si>
+  <si>
+    <t>timeInADayShiftBedTime</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>frequency16</t>
+  </si>
+  <si>
+    <t>frequency17</t>
+  </si>
+  <si>
+    <t>frequency18</t>
+  </si>
+  <si>
+    <t>frequency19</t>
+  </si>
+  <si>
+    <t>frequency20</t>
+  </si>
+  <si>
+    <t>frequency21</t>
+  </si>
+  <si>
+    <t>With Meals</t>
+  </si>
+  <si>
+    <t>Before Meals</t>
+  </si>
+  <si>
+    <t>After Meals</t>
+  </si>
+  <si>
+    <t>Before Meals + Bed Time</t>
+  </si>
+  <si>
+    <t>After Meals + Bed Time</t>
+  </si>
+  <si>
+    <t>Only One Time / STAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +569,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -463,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -502,6 +661,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -783,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK29"/>
+  <dimension ref="A1:BU29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView tabSelected="1" topLeftCell="AW13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BJ16" sqref="BJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,12 +979,18 @@
     <col min="27" max="27" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="44" width="9.140625" style="1"/>
+    <col min="30" max="43" width="9.140625" style="1"/>
+    <col min="44" max="44" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="1"/>
+    <col min="46" max="46" width="9.140625" style="1"/>
+    <col min="47" max="48" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="9.140625" style="1"/>
+    <col min="52" max="52" width="11.5703125" style="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -829,13 +1000,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>118</v>
       </c>
@@ -845,7 +1016,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -878,7 +1049,7 @@
       <c r="AD4" s="12"/>
       <c r="AE4" s="11"/>
     </row>
-    <row r="5" spans="1:63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -886,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -975,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1064,7 +1235,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1120,7 +1291,7 @@
       <c r="BA9" s="13"/>
       <c r="BB9" s="13"/>
     </row>
-    <row r="10" spans="1:63" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1299,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1461,7 @@
       </c>
       <c r="BB11" s="7"/>
     </row>
-    <row r="12" spans="1:63" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>118</v>
       </c>
@@ -1451,7 +1622,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1507,7 +1678,7 @@
       <c r="BA13" s="13"/>
       <c r="BB13" s="13"/>
     </row>
-    <row r="14" spans="1:63" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1686,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -1646,206 +1817,292 @@
         <v>94</v>
       </c>
       <c r="AR15" s="7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="AS15" s="7" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AT15" s="7" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AU15" s="7" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="AV15" s="7" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW15" s="7" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="AX15" s="7" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AY15" s="7" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AZ15" s="7" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="BA15" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB15" s="7"/>
-      <c r="BC15" s="7"/>
-      <c r="BD15" s="7"/>
-      <c r="BE15" s="7"/>
-      <c r="BF15" s="7"/>
-      <c r="BG15" s="7"/>
-      <c r="BH15" s="7"/>
-      <c r="BI15" s="7"/>
-      <c r="BJ15" s="7"/>
-      <c r="BK15" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="BB15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="BI15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="BK15" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="BL15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN15" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="BO15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="BP15" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ15" s="7"/>
+      <c r="BR15" s="7"/>
+      <c r="BS15" s="7"/>
+      <c r="BT15" s="7"/>
+      <c r="BU15" s="7"/>
     </row>
-    <row r="16" spans="1:63" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:73" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="14">
         <v>5</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="T16" s="9" t="s">
+      <c r="T16" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="U16" s="8" t="s">
+      <c r="U16" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="V16" s="10" t="s">
+      <c r="V16" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="X16" s="9" t="s">
+      <c r="X16" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="Y16" s="9" t="s">
+      <c r="Y16" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="Z16" s="8" t="s">
+      <c r="Z16" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="AA16" s="9" t="s">
+      <c r="AA16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AB16" s="8" t="s">
+      <c r="AB16" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AC16" s="9" t="s">
+      <c r="AC16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="AD16" s="8" t="s">
+      <c r="AD16" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AE16" s="9" t="s">
+      <c r="AE16" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AF16" s="8" t="s">
+      <c r="AF16" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="AG16" s="9" t="s">
+      <c r="AG16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AH16" s="9" t="s">
+      <c r="AH16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AI16" s="9" t="s">
+      <c r="AI16" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AJ16" s="9" t="s">
+      <c r="AJ16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AK16" s="9" t="s">
+      <c r="AK16" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AL16" s="1" t="s">
+      <c r="AL16" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AM16" s="1" t="s">
+      <c r="AM16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AN16" s="9" t="s">
+      <c r="AN16" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AO16" s="1" t="s">
+      <c r="AO16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AP16" s="1" t="s">
+      <c r="AP16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AQ16" s="8" t="s">
+      <c r="AQ16" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="AR16" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU16" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW16" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BA16" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="AR16" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS16" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT16" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW16" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX16" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY16" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ16" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA16" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB16" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC16" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD16" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE16" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF16" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="BG16" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH16" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="BI16" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ16" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK16" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BL16" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM16" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="BN16" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="BO16" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP16" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="BQ16" s="14"/>
     </row>
     <row r="18" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1985,16 +2242,36 @@
       <c r="AQ19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AR19" s="7"/>
-      <c r="AS19" s="7"/>
-      <c r="AT19" s="7"/>
-      <c r="AU19" s="7"/>
-      <c r="AV19" s="7"/>
-      <c r="AW19" s="7"/>
-      <c r="AX19" s="7"/>
-      <c r="AY19" s="7"/>
-      <c r="AZ19" s="7"/>
-      <c r="BA19" s="7"/>
+      <c r="AR19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA19" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="BB19" s="7"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="7"/>
@@ -2133,13 +2410,36 @@
       <c r="AQ20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AR20" s="8"/>
-      <c r="AS20" s="8"/>
-      <c r="AU20" s="8"/>
-      <c r="AV20" s="8"/>
-      <c r="AW20" s="8"/>
-      <c r="AX20" s="8"/>
-      <c r="AY20" s="8"/>
+      <c r="AR20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS20" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV20" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW20" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="BB20" s="9"/>
       <c r="BC20" s="9"/>
       <c r="BD20" s="9"/>

--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15825" windowHeight="6510"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="15825" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="physicianportal" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="188">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -438,9 +438,6 @@
     <t>timeInADayShift</t>
   </si>
   <si>
-    <t>Morning</t>
-  </si>
-  <si>
     <t>08:00 am</t>
   </si>
   <si>
@@ -535,6 +532,57 @@
   </si>
   <si>
     <t>Only One Time / STAT</t>
+  </si>
+  <si>
+    <t>QA14_ResidentOrders_CreateAnOrder</t>
+  </si>
+  <si>
+    <t>medicationType</t>
+  </si>
+  <si>
+    <t>searchMedicationName</t>
+  </si>
+  <si>
+    <t>Search Medications</t>
+  </si>
+  <si>
+    <t>Amox</t>
+  </si>
+  <si>
+    <t>Amoxicillin 875 MG Tablet</t>
+  </si>
+  <si>
+    <t>medicationType1</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>Treatment With Medication</t>
+  </si>
+  <si>
+    <t>Both Ears</t>
+  </si>
+  <si>
+    <t>QA15_ResidentOrders_CreateAnOrderWithFrequencyRoutine</t>
+  </si>
+  <si>
+    <t>Fourth</t>
+  </si>
+  <si>
+    <t>QA17_ResidentOrders_CreateAnOrderWithFrequencyPRN</t>
+  </si>
+  <si>
+    <t>QA16_ResidentOrders_CreateAnOrderWithFrequencyPRNEveryHour</t>
+  </si>
+  <si>
+    <t>201332142</t>
+  </si>
+  <si>
+    <t>EnterValue</t>
+  </si>
+  <si>
+    <t>Evening</t>
   </si>
 </sst>
 </file>
@@ -940,7 +988,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -948,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU29"/>
+  <dimension ref="A1:BU44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BJ16" sqref="BJ16"/>
+    <sheetView tabSelected="1" topLeftCell="AV10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BA16" sqref="BA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,11 +1052,16 @@
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>118</v>
+      <c r="A3" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
@@ -1462,8 +1515,8 @@
       <c r="BB11" s="7"/>
     </row>
     <row r="12" spans="1:73" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>118</v>
+      <c r="A12" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
@@ -1847,49 +1900,49 @@
         <v>138</v>
       </c>
       <c r="BB15" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BC15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD15" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="BD15" s="7" t="s">
+      <c r="BE15" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="BE15" s="7" t="s">
+      <c r="BF15" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="BF15" s="7" t="s">
+      <c r="BG15" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="BG15" s="7" t="s">
+      <c r="BH15" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="BH15" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="BI15" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BJ15" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BK15" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="BL15" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="BL15" s="7" t="s">
+      <c r="BM15" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="BM15" s="7" t="s">
+      <c r="BN15" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="BN15" s="7" t="s">
+      <c r="BO15" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="BO15" s="7" t="s">
+      <c r="BP15" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="BP15" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="BQ15" s="7"/>
       <c r="BR15" s="7"/>
@@ -1899,7 +1952,7 @@
     </row>
     <row r="16" spans="1:73" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>23</v>
@@ -2052,55 +2105,55 @@
         <v>136</v>
       </c>
       <c r="AZ16" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BA16" s="16" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="BB16" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BC16" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD16" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="BD16" s="16" t="s">
+      <c r="BE16" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="BE16" s="14" t="s">
+      <c r="BF16" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="BF16" s="16" t="s">
+      <c r="BG16" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="BG16" s="19" t="s">
+      <c r="BH16" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="BH16" s="16" t="s">
-        <v>154</v>
-      </c>
       <c r="BI16" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ16" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BK16" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL16" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="BL16" s="14" t="s">
+      <c r="BM16" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="BM16" s="16" t="s">
+      <c r="BN16" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="BN16" s="16" t="s">
+      <c r="BO16" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="BO16" s="14" t="s">
+      <c r="BP16" s="16" t="s">
         <v>170</v>
-      </c>
-      <c r="BP16" s="16" t="s">
-        <v>171</v>
       </c>
       <c r="BQ16" s="14"/>
     </row>
@@ -2281,8 +2334,8 @@
       <c r="BH19" s="7"/>
     </row>
     <row r="20" spans="1:60" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>118</v>
+      <c r="A20" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
@@ -2677,8 +2730,8 @@
       </c>
     </row>
     <row r="24" spans="1:60" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>118</v>
+      <c r="A24" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -3062,8 +3115,8 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>118</v>
+      <c r="A28" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
@@ -3277,6 +3330,1197 @@
       <c r="AZ29" s="13"/>
       <c r="BA29" s="13"/>
     </row>
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC31" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:60" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N32" s="1">
+        <v>5</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC32" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS35" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB35" s="7"/>
+    </row>
+    <row r="36" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z36" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI36" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK36" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN36" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ36" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU36" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW36" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX36" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA36" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO39" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX39" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ39" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA39" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB39" s="7"/>
+    </row>
+    <row r="40" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="1">
+        <v>5</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="V40" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE40" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF40" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI40" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK40" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN40" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR40" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS40" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU40" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV40" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX40" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY40" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA40" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD43" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG43" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH43" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI43" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK43" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM43" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO43" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ43" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR43" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV43" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW43" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB43" s="7"/>
+    </row>
+    <row r="44" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" s="1">
+        <v>5</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U44" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB44" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD44" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE44" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF44" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI44" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK44" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN44" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS44" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU44" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV44" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW44" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX44" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY44" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA44" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="15825" windowHeight="6450"/>
+    <workbookView xWindow="0" yWindow="2565" windowWidth="15825" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="physicianportal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="217">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -375,9 +375,6 @@
     <t>PRN</t>
   </si>
   <si>
-    <t>201332147-1</t>
-  </si>
-  <si>
     <t>QA13_ResidentOrders_CreateAnOrderWithFrequencyPRNEveryHour</t>
   </si>
   <si>
@@ -583,6 +580,96 @@
   </si>
   <si>
     <t>Evening</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>type8</t>
+  </si>
+  <si>
+    <t>type9</t>
+  </si>
+  <si>
+    <t>frequencyType1</t>
+  </si>
+  <si>
+    <t>frequencyType2</t>
+  </si>
+  <si>
+    <t>frequencyType3</t>
+  </si>
+  <si>
+    <t>QA18_ResidentOrders_CreateAnOrderWithFrequencyPRN</t>
+  </si>
+  <si>
+    <t>ResidentNo</t>
+  </si>
+  <si>
+    <t>WithoutMed</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>QA19_ViewAndModifyAnOrder_ViaOrderSets</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>physicianType1</t>
+  </si>
+  <si>
+    <t>ReceivedByType1</t>
+  </si>
+  <si>
+    <t>REYHANI, SEAN</t>
+  </si>
+  <si>
+    <t>word, Bobby</t>
+  </si>
+  <si>
+    <t>discontinueForCorrection</t>
+  </si>
+  <si>
+    <t>copyOrder</t>
+  </si>
+  <si>
+    <t>dcMessage</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>2010064-1</t>
+  </si>
+  <si>
+    <t>administeredBy1</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>discontinueForCorrection1</t>
+  </si>
+  <si>
+    <t>copyOrder1</t>
+  </si>
+  <si>
+    <t>dcMessage1</t>
+  </si>
+  <si>
+    <t>Amoxicillin 400 MG/5ML Suspension Reconstituted</t>
+  </si>
+  <si>
+    <t>QA20_VerifyAnOrder_ViaOrderSetsOrCreateAnOrder</t>
+  </si>
+  <si>
+    <t>QA21_VerifyAndModifyAnOrder_ViaOrderSetsOrCreateAnOrder</t>
+  </si>
+  <si>
+    <t>description1</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -996,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU44"/>
+  <dimension ref="A1:BU60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA16" sqref="BA16"/>
+    <sheetView tabSelected="1" topLeftCell="AP54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BB59" sqref="BB59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,9 +1114,12 @@
     <col min="27" max="27" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="43" width="9.140625" style="1"/>
+    <col min="30" max="30" width="9.140625" style="1"/>
+    <col min="31" max="31" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="42" width="9.140625" style="1"/>
+    <col min="43" max="43" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.85546875" style="1" customWidth="1"/>
     <col min="46" max="46" width="9.140625" style="1"/>
     <col min="47" max="48" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="16.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1053,15 +1143,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
@@ -1284,8 +1374,8 @@
       <c r="AB7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AC7" s="9" t="s">
-        <v>118</v>
+      <c r="AC7" s="15" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.25">
@@ -1516,7 +1606,7 @@
     </row>
     <row r="12" spans="1:73" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
@@ -1870,79 +1960,79 @@
         <v>94</v>
       </c>
       <c r="AR15" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AS15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT15" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AT15" s="7" t="s">
+      <c r="AU15" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AU15" s="7" t="s">
+      <c r="AV15" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="AV15" s="7" t="s">
+      <c r="AW15" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AW15" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="AX15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AY15" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="AZ15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA15" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BA15" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="BB15" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BC15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="BD15" s="7" t="s">
+      <c r="BE15" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="BE15" s="7" t="s">
+      <c r="BF15" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="BF15" s="7" t="s">
+      <c r="BG15" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="BG15" s="7" t="s">
+      <c r="BH15" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="BH15" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="BI15" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BJ15" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BK15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL15" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="BL15" s="7" t="s">
+      <c r="BM15" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="BM15" s="7" t="s">
+      <c r="BN15" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="BN15" s="7" t="s">
+      <c r="BO15" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="BO15" s="7" t="s">
+      <c r="BP15" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="BP15" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="BQ15" s="7"/>
       <c r="BR15" s="7"/>
@@ -1952,7 +2042,7 @@
     </row>
     <row r="16" spans="1:73" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>23</v>
@@ -2081,79 +2171,79 @@
         <v>85</v>
       </c>
       <c r="AR16" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AS16" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT16" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AT16" s="14" t="s">
+      <c r="AU16" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="AU16" s="16" t="s">
+      <c r="AV16" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="AV16" s="16" t="s">
+      <c r="AW16" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="AW16" s="16" t="s">
-        <v>132</v>
-      </c>
       <c r="AX16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY16" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AY16" s="16" t="s">
-        <v>136</v>
-      </c>
       <c r="AZ16" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BA16" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BB16" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BC16" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD16" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="BD16" s="16" t="s">
+      <c r="BE16" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="BE16" s="14" t="s">
+      <c r="BF16" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="BF16" s="16" t="s">
+      <c r="BG16" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="BG16" s="19" t="s">
+      <c r="BH16" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="BH16" s="16" t="s">
-        <v>153</v>
-      </c>
       <c r="BI16" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BJ16" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BK16" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL16" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="BL16" s="14" t="s">
+      <c r="BM16" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="BM16" s="16" t="s">
+      <c r="BN16" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="BN16" s="16" t="s">
+      <c r="BO16" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="BO16" s="14" t="s">
+      <c r="BP16" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="BP16" s="16" t="s">
-        <v>170</v>
       </c>
       <c r="BQ16" s="14"/>
     </row>
@@ -2335,7 +2425,7 @@
     </row>
     <row r="20" spans="1:60" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
@@ -2731,7 +2821,7 @@
     </row>
     <row r="24" spans="1:60" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -2950,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:60" ht="75" x14ac:dyDescent="0.25">
@@ -3116,7 +3206,7 @@
     </row>
     <row r="28" spans="1:60" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
@@ -3176,7 +3266,7 @@
         <v>88</v>
       </c>
       <c r="U28" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V28" s="10" t="s">
         <v>89</v>
@@ -3335,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:60" ht="45" x14ac:dyDescent="0.25">
@@ -3346,13 +3436,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>9</v>
@@ -3429,19 +3519,19 @@
     </row>
     <row r="32" spans="1:60" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>28</v>
@@ -3456,7 +3546,7 @@
         <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>34</v>
@@ -3501,7 +3591,7 @@
         <v>53</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>34</v>
@@ -3513,7 +3603,7 @@
         <v>34</v>
       </c>
       <c r="AC32" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:54" ht="30" x14ac:dyDescent="0.25">
@@ -3521,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.25">
@@ -3692,13 +3782,13 @@
     </row>
     <row r="36" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>25</v>
@@ -3716,7 +3806,7 @@
         <v>29</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>54</v>
@@ -3737,7 +3827,7 @@
         <v>40</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>34</v>
@@ -3839,7 +3929,7 @@
         <v>110</v>
       </c>
       <c r="AX36" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AY36" s="8" t="s">
         <v>107</v>
@@ -3856,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.25">
@@ -4027,13 +4117,13 @@
     </row>
     <row r="40" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>25</v>
@@ -4051,7 +4141,7 @@
         <v>29</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>54</v>
@@ -4072,7 +4162,7 @@
         <v>40</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>34</v>
@@ -4087,7 +4177,7 @@
         <v>88</v>
       </c>
       <c r="U40" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V40" s="10" t="s">
         <v>89</v>
@@ -4174,7 +4264,7 @@
         <v>110</v>
       </c>
       <c r="AX40" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AY40" s="8" t="s">
         <v>107</v>
@@ -4191,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.25">
@@ -4362,13 +4452,13 @@
     </row>
     <row r="44" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>25</v>
@@ -4386,7 +4476,7 @@
         <v>29</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>54</v>
@@ -4407,7 +4497,7 @@
         <v>40</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>34</v>
@@ -4509,7 +4599,7 @@
         <v>110</v>
       </c>
       <c r="AX44" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AY44" s="8" t="s">
         <v>107</v>
@@ -4519,6 +4609,1204 @@
       </c>
       <c r="BA44" s="1" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U47" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y47" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z47" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA47" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB47" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC47" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD47" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE47" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN47" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T48" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y48" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB48" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE48" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN48" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:59" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:59" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T51" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V51" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W51" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X51" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y51" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z51" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA51" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB51" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC51" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD51" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE51" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO51" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ51" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR51" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU51" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV51" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW51" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX51" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY51" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ51" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BA51" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB51" s="6"/>
+      <c r="BC51" s="6"/>
+      <c r="BD51" s="6"/>
+      <c r="BE51" s="6"/>
+      <c r="BF51" s="6"/>
+      <c r="BG51" s="6"/>
+    </row>
+    <row r="52" spans="1:59" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S52" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T52" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W52" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y52" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB52" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE52" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK52" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO52" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ52" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW52" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA52" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:59" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:59" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V55" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W55" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X55" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA55" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC55" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD55" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE55" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK55" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL55" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM55" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO55" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:59" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="R56" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S56" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T56" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W56" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y56" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB56" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE56" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO56" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:59" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:59" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R59" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V59" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W59" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X59" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y59" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z59" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA59" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC59" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD59" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE59" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK59" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL59" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM59" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO59" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP59" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ59" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR59" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS59" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT59" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU59" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV59" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW59" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX59" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY59" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ59" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BA59" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB59" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:59" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q60" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S60" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T60" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U60" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V60" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W60" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X60" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y60" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB60" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE60" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF60" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK60" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO60" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ60" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW60" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB60" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="physicianportal" sheetId="1" r:id="rId1"/>
+    <sheet name="clinicalPortal" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="226">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -670,6 +671,33 @@
   </si>
   <si>
     <t>description1</t>
+  </si>
+  <si>
+    <t>num1</t>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>num3</t>
+  </si>
+  <si>
+    <t>num4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>QA22_SignAnOrder_ViaOrderSetsOrCreateAnOrder</t>
+  </si>
+  <si>
+    <t>QA23_ViewAndModifyAnOrder_ViaOrderSetsOrCreateAnOrder</t>
+  </si>
+  <si>
+    <t>QA24_RecapAnOrder_ViaOrderSetsOrCreateAnOrder</t>
   </si>
 </sst>
 </file>
@@ -757,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -802,6 +830,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1083,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU60"/>
+  <dimension ref="A1:BU72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB59" sqref="BB59"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,7 +1861,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:73" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
@@ -2255,7 +2287,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:60" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
@@ -2415,10 +2447,18 @@
       <c r="BA19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="BB19" s="7"/>
-      <c r="BC19" s="7"/>
-      <c r="BD19" s="7"/>
-      <c r="BE19" s="7"/>
+      <c r="BB19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="BE19" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="BF19" s="7"/>
       <c r="BG19" s="7"/>
       <c r="BH19" s="7"/>
@@ -2583,10 +2623,18 @@
       <c r="BA20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="9"/>
-      <c r="BD20" s="9"/>
-      <c r="BE20" s="9"/>
+      <c r="BB20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC20" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="BD20" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE20" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
@@ -2658,7 +2706,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:60" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>1</v>
       </c>
@@ -3043,7 +3091,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>1</v>
       </c>
@@ -3618,7 +3666,7 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>1</v>
       </c>
@@ -3953,7 +4001,7 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -4288,7 +4336,7 @@
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>1</v>
       </c>
@@ -5809,8 +5857,6852 @@
         <v>196</v>
       </c>
     </row>
+    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:59" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R63" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T63" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U63" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V63" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W63" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X63" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y63" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z63" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA63" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB63" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC63" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD63" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE63" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK63" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL63" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO63" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:59" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P64" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q64" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="R64" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S64" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T64" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U64" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V64" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W64" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X64" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y64" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB64" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE64" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF64" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK64" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO64" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R67" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T67" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U67" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V67" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W67" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X67" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y67" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z67" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA67" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB67" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC67" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD67" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE67" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF67" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK67" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL67" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM67" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN67" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO67" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP67" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ67" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR67" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS67" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT67" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU67" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV67" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW67" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX67" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY67" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ67" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BA67" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB67" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P68" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q68" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="R68" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S68" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T68" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U68" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V68" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W68" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X68" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y68" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB68" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE68" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF68" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK68" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO68" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ68" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW68" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB68" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q71" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R71" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S71" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T71" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U71" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V71" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W71" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X71" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y71" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z71" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA71" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB71" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC71" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD71" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE71" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL71" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM71" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN71" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO71" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP71" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ71" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR71" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS71" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT71" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU71" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV71" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW71" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX71" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY71" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ71" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BA71" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB71" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P72" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q72" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="R72" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S72" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T72" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U72" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V72" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W72" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X72" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y72" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB72" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE72" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF72" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK72" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO72" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ72" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT72" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV72" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW72" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY72" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB72" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CG44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1"/>
+    </row>
+    <row r="2" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+    </row>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+    </row>
+    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="1"/>
+      <c r="CG4" s="1"/>
+    </row>
+    <row r="5" spans="1:85" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+    </row>
+    <row r="6" spans="1:85" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="1"/>
+      <c r="BU6" s="1"/>
+      <c r="BV6" s="1"/>
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="1"/>
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="1"/>
+      <c r="CB6" s="1"/>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="1"/>
+      <c r="CE6" s="1"/>
+      <c r="CF6" s="1"/>
+      <c r="CG6" s="1"/>
+    </row>
+    <row r="7" spans="1:85" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="1"/>
+    </row>
+    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+    </row>
+    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+    </row>
+    <row r="10" spans="1:85" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="1"/>
+      <c r="BU10" s="1"/>
+      <c r="BV10" s="1"/>
+      <c r="BW10" s="1"/>
+      <c r="BX10" s="1"/>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="1"/>
+      <c r="CA10" s="1"/>
+      <c r="CB10" s="1"/>
+      <c r="CC10" s="1"/>
+      <c r="CD10" s="1"/>
+      <c r="CE10" s="1"/>
+      <c r="CF10" s="1"/>
+      <c r="CG10" s="1"/>
+    </row>
+    <row r="11" spans="1:85" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+    </row>
+    <row r="12" spans="1:85" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+    </row>
+    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="13"/>
+      <c r="BB13" s="13"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="1"/>
+      <c r="BU13" s="1"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="1"/>
+      <c r="BX13" s="1"/>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="1"/>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="1"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="1"/>
+      <c r="CF13" s="1"/>
+      <c r="CG13" s="1"/>
+    </row>
+    <row r="14" spans="1:85" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="1"/>
+      <c r="CF14" s="1"/>
+      <c r="CG14" s="1"/>
+    </row>
+    <row r="15" spans="1:85" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA15" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="BG15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="BJ15" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL15" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM15" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BO15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP15" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="BQ15" s="7"/>
+      <c r="BR15" s="7"/>
+      <c r="BS15" s="7"/>
+      <c r="BT15" s="7"/>
+      <c r="BU15" s="7"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
+      <c r="CG15" s="1"/>
+    </row>
+    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="14">
+        <v>5</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y16" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD16" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI16" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ16" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR16" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS16" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU16" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY16" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ16" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA16" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB16" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="BC16" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD16" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE16" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF16" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="BG16" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH16" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI16" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="BJ16" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="BK16" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL16" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM16" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BN16" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="BO16" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BP16" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="BQ16" s="14"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1"/>
+    </row>
+    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
+      <c r="BU17" s="1"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="1"/>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+    </row>
+    <row r="18" spans="1:85" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+      <c r="BT18" s="1"/>
+      <c r="BU18" s="1"/>
+      <c r="BV18" s="1"/>
+      <c r="BW18" s="1"/>
+      <c r="BX18" s="1"/>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="1"/>
+      <c r="CF18" s="1"/>
+      <c r="CG18" s="1"/>
+    </row>
+    <row r="19" spans="1:85" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="BE19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF19" s="7"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="7"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+    </row>
+    <row r="20" spans="1:85" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS20" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV20" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW20" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC20" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="BD20" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="1"/>
+      <c r="BW20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+    </row>
+    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="13"/>
+      <c r="BE21" s="13"/>
+      <c r="BF21" s="13"/>
+      <c r="BG21" s="13"/>
+      <c r="BH21" s="13"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+    </row>
+    <row r="22" spans="1:85" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="1"/>
+      <c r="BU22" s="1"/>
+      <c r="BV22" s="1"/>
+      <c r="BW22" s="1"/>
+      <c r="BX22" s="1"/>
+      <c r="BY22" s="1"/>
+      <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="1"/>
+      <c r="CF22" s="1"/>
+      <c r="CG22" s="1"/>
+    </row>
+    <row r="23" spans="1:85" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="1"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+    </row>
+    <row r="24" spans="1:85" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV24" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY24" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
+      <c r="CE24" s="1"/>
+      <c r="CF24" s="1"/>
+      <c r="CG24" s="1"/>
+    </row>
+    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="13"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="13"/>
+      <c r="AS25" s="13"/>
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="13"/>
+      <c r="AW25" s="13"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="13"/>
+      <c r="AZ25" s="13"/>
+      <c r="BA25" s="13"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="1"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="1"/>
+      <c r="BX25" s="1"/>
+      <c r="BY25" s="1"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="1"/>
+      <c r="CF25" s="1"/>
+      <c r="CG25" s="1"/>
+    </row>
+    <row r="26" spans="1:85" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="1"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="1"/>
+      <c r="BX26" s="1"/>
+      <c r="BY26" s="1"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+    </row>
+    <row r="27" spans="1:85" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="1"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="1"/>
+    </row>
+    <row r="28" spans="1:85" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U28" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX28" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY28" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
+      <c r="BU28" s="1"/>
+      <c r="BV28" s="1"/>
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="1"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
+    </row>
+    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="13"/>
+      <c r="BA29" s="13"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="1"/>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="1"/>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
+      <c r="CC29" s="1"/>
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="1"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="1"/>
+    </row>
+    <row r="30" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+    </row>
+    <row r="31" spans="1:85" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+    </row>
+    <row r="32" spans="1:85" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N32" s="1">
+        <v>5</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC32" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+      <c r="BM32" s="1"/>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="1"/>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="1"/>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="1"/>
+      <c r="BZ32" s="1"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
+      <c r="CC32" s="1"/>
+      <c r="CD32" s="1"/>
+      <c r="CE32" s="1"/>
+      <c r="CF32" s="1"/>
+      <c r="CG32" s="1"/>
+    </row>
+    <row r="33" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+    </row>
+    <row r="34" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+    </row>
+    <row r="35" spans="1:85" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS35" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB35" s="7"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+    </row>
+    <row r="36" spans="1:85" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z36" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI36" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK36" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN36" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ36" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU36" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW36" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX36" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+    </row>
+    <row r="37" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="1"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="1"/>
+    </row>
+    <row r="38" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+    </row>
+    <row r="39" spans="1:85" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO39" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX39" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ39" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA39" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB39" s="7"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+    </row>
+    <row r="40" spans="1:85" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="1">
+        <v>5</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="V40" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE40" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF40" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI40" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK40" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN40" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR40" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS40" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU40" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV40" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX40" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY40" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="1"/>
+      <c r="BX40" s="1"/>
+      <c r="BY40" s="1"/>
+      <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
+      <c r="CC40" s="1"/>
+      <c r="CD40" s="1"/>
+      <c r="CE40" s="1"/>
+      <c r="CF40" s="1"/>
+      <c r="CG40" s="1"/>
+    </row>
+    <row r="41" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
+      <c r="CC41" s="1"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+    </row>
+    <row r="42" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="1"/>
+      <c r="BM42" s="1"/>
+      <c r="BN42" s="1"/>
+      <c r="BO42" s="1"/>
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="1"/>
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="1"/>
+      <c r="BT42" s="1"/>
+      <c r="BU42" s="1"/>
+      <c r="BV42" s="1"/>
+      <c r="BW42" s="1"/>
+      <c r="BX42" s="1"/>
+      <c r="BY42" s="1"/>
+      <c r="BZ42" s="1"/>
+      <c r="CA42" s="1"/>
+      <c r="CB42" s="1"/>
+      <c r="CC42" s="1"/>
+      <c r="CD42" s="1"/>
+      <c r="CE42" s="1"/>
+      <c r="CF42" s="1"/>
+      <c r="CG42" s="1"/>
+    </row>
+    <row r="43" spans="1:85" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD43" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG43" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH43" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI43" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK43" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM43" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO43" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ43" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR43" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV43" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW43" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB43" s="7"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="1"/>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="1"/>
+      <c r="BX43" s="1"/>
+      <c r="BY43" s="1"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="1"/>
+      <c r="CB43" s="1"/>
+      <c r="CC43" s="1"/>
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="1"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="1"/>
+    </row>
+    <row r="44" spans="1:85" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" s="1">
+        <v>5</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U44" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB44" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD44" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE44" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF44" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI44" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK44" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN44" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS44" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU44" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV44" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW44" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX44" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY44" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+      <c r="BT44" s="1"/>
+      <c r="BU44" s="1"/>
+      <c r="BV44" s="1"/>
+      <c r="BW44" s="1"/>
+      <c r="BX44" s="1"/>
+      <c r="BY44" s="1"/>
+      <c r="BZ44" s="1"/>
+      <c r="CA44" s="1"/>
+      <c r="CB44" s="1"/>
+      <c r="CC44" s="1"/>
+      <c r="CD44" s="1"/>
+      <c r="CE44" s="1"/>
+      <c r="CF44" s="1"/>
+      <c r="CG44" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2565" windowWidth="15825" windowHeight="6390"/>
+    <workbookView xWindow="0" yWindow="2565" windowWidth="15825" windowHeight="6390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="physicianportal" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="237">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -698,6 +698,39 @@
   </si>
   <si>
     <t>QA24_RecapAnOrder_ViaOrderSetsOrCreateAnOrder</t>
+  </si>
+  <si>
+    <t>QA90_OrderCreationViaClinicalAPP</t>
+  </si>
+  <si>
+    <t>QA91_ResidentOrders_CreateAnOrderUsingDetailsType</t>
+  </si>
+  <si>
+    <t>QA92_AddingFrequencyFromResidentOrders_CreateAnOrderWithFrequencyRoutine</t>
+  </si>
+  <si>
+    <t>QA93_FrequencyFieldSelectionWhen_FrequencyTypeRoutine</t>
+  </si>
+  <si>
+    <t>QA94_HowOftenFieldSelectionWhen_FrequencyTypeRoutine</t>
+  </si>
+  <si>
+    <t>QA95_AddingFrequencyFromOrders_WithFrequencyPRN</t>
+  </si>
+  <si>
+    <t>QA96_AddingFrequencyFromResidentOrder_WithFrequencyPRNEveryHour</t>
+  </si>
+  <si>
+    <t>QA97_ResidentOrders_CreateAnOrderUsingDetailsTypeTreatmentWithMedication_And_Medication</t>
+  </si>
+  <si>
+    <t>QA98_ResidentOrders_CreateAnOrderUsingDetailsTypeTreatmentWithMedication_And_Medication_FrequencyTypeRoutine</t>
+  </si>
+  <si>
+    <t>QA99_ResidentOrders_CreateAnOrderUsingDetailsTypeTreatmentWithMedication_And_Medication_WithFrequencyPRNEveryHour</t>
+  </si>
+  <si>
+    <t>QA100_ResidentOrders_CreateAnOrderUsingDetailsTypeTreatmentWithMedication_And_Medication_WithFrequencyPRN</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1140,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1117,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
@@ -6809,8 +6842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6823,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="4"/>
@@ -7178,12 +7211,12 @@
       <c r="CF4" s="1"/>
       <c r="CG4" s="1"/>
     </row>
-    <row r="5" spans="1:85" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -7733,12 +7766,12 @@
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
     </row>
-    <row r="10" spans="1:85" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -8297,12 +8330,12 @@
       <c r="CF13" s="1"/>
       <c r="CG13" s="1"/>
     </row>
-    <row r="14" spans="1:85" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -8921,12 +8954,12 @@
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
     </row>
-    <row r="18" spans="1:85" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>114</v>
+        <v>230</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -9501,12 +9534,12 @@
       <c r="CF21" s="1"/>
       <c r="CG21" s="1"/>
     </row>
-    <row r="22" spans="1:85" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -10065,12 +10098,12 @@
       <c r="CF25" s="1"/>
       <c r="CG25" s="1"/>
     </row>
-    <row r="26" spans="1:85" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:85" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -10634,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -11015,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -11578,8 +11611,8 @@
       <c r="A37" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>183</v>
+      <c r="B37" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -12143,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>

--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7236" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7248" uniqueCount="291">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -884,6 +884,12 @@
   </si>
   <si>
     <t>QA119_ChangeAppWindowThrough_ApplicationMenuButton</t>
+  </si>
+  <si>
+    <t>QA120_ExploreEmar_DashboardPageUsing_eMARapp</t>
+  </si>
+  <si>
+    <t>QA121_LaunchPage_ViewOrderStatus_OneMARDashboard</t>
   </si>
 </sst>
 </file>
@@ -23331,10 +23337,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23433,6 +23439,50 @@
         <v>287</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="480" windowWidth="13395" windowHeight="3300" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="540" windowWidth="13395" windowHeight="3240"/>
   </bookViews>
   <sheets>
     <sheet name="physicianportal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7248" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7698" uniqueCount="336">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -890,6 +890,141 @@
   </si>
   <si>
     <t>QA121_LaunchPage_ViewOrderStatus_OneMARDashboard</t>
+  </si>
+  <si>
+    <t>QA122_EmarDashboard_OrdersWidget</t>
+  </si>
+  <si>
+    <t>QA123_EmarDashboard_ADTChanges</t>
+  </si>
+  <si>
+    <t>ADTDaysValue</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>QA124_EmarDashboard_LateMedicationsLast24Hours</t>
+  </si>
+  <si>
+    <t>QA125_EmarDashboard_Followups</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Station 1</t>
+  </si>
+  <si>
+    <t>QA126_EmarDashboard_ResidentDashboard</t>
+  </si>
+  <si>
+    <t>Station 5</t>
+  </si>
+  <si>
+    <t>QA127_EmarDashboard_ResidentDetails_OnDashboard</t>
+  </si>
+  <si>
+    <t>QA128_AdministrationButtonsAvailable_OnResidentDashboard</t>
+  </si>
+  <si>
+    <t>Station 3</t>
+  </si>
+  <si>
+    <t>QA129_VerifyCurrentAdministrationRoutine_OrdersAdministration</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Station 4</t>
+  </si>
+  <si>
+    <t>Station 2</t>
+  </si>
+  <si>
+    <t>Station 7</t>
+  </si>
+  <si>
+    <t>QA130_VerifyCurrentAdministrationPRN_OrdersAdministration</t>
+  </si>
+  <si>
+    <t>RoutineTabType</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>PRNTabType</t>
+  </si>
+  <si>
+    <t>prn</t>
+  </si>
+  <si>
+    <t>QA131_VerifyCurrentAdministrationFollowUps_OrdersAdministration</t>
+  </si>
+  <si>
+    <t>followup</t>
+  </si>
+  <si>
+    <t>FollowUPTabType</t>
+  </si>
+  <si>
+    <t>TabType</t>
+  </si>
+  <si>
+    <t>QA132_AdministeringShowFutureRecord_EMAR</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>QA134_InteractionsButton_ResidentDashoard_EMAR</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>QA133_AdministeringShowFutureRecord_EMAR</t>
+  </si>
+  <si>
+    <t>InteractionsTask</t>
+  </si>
+  <si>
+    <t>CurrentTask</t>
+  </si>
+  <si>
+    <t>QA135_LostOrDisposedMedication_ResidentDashoard_EMAR</t>
+  </si>
+  <si>
+    <t>Lost/Disposed</t>
+  </si>
+  <si>
+    <t>QA136_PastAdministrationResidentDashboardforRoutine_ResidentDashoard_EMAR</t>
+  </si>
+  <si>
+    <t>Use by week</t>
+  </si>
+  <si>
+    <t>Use specific days</t>
+  </si>
+  <si>
+    <t>2010064</t>
+  </si>
+  <si>
+    <t>RN (Nursing)</t>
   </si>
 </sst>
 </file>
@@ -917,7 +1052,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,6 +1071,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -949,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -995,6 +1136,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1299,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR40"/>
   <sheetViews>
-    <sheetView topLeftCell="AO25" workbookViewId="0">
-      <selection activeCell="BF26" sqref="BF26"/>
+    <sheetView tabSelected="1" topLeftCell="AG37" workbookViewId="0">
+      <selection activeCell="AZ41" sqref="AZ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,7 +2524,7 @@
         <v>223</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>37</v>
@@ -2513,7 +2659,7 @@
         <v>109</v>
       </c>
       <c r="AU6" s="7" t="s">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="AV6" s="8" t="s">
         <v>111</v>
@@ -2531,7 +2677,7 @@
         <v>115</v>
       </c>
       <c r="BA6" s="7" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="BB6" s="7" t="s">
         <v>116</v>
@@ -2802,7 +2948,7 @@
         <v>224</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>37</v>
@@ -3226,7 +3372,7 @@
         <v>225</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>37</v>
@@ -3361,7 +3507,7 @@
         <v>109</v>
       </c>
       <c r="AU10" s="7" t="s">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="AV10" s="8" t="s">
         <v>111</v>
@@ -3379,7 +3525,7 @@
         <v>115</v>
       </c>
       <c r="BA10" s="7" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="BB10" s="7" t="s">
         <v>116</v>
@@ -3650,7 +3796,7 @@
         <v>226</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>37</v>
@@ -3785,7 +3931,7 @@
         <v>109</v>
       </c>
       <c r="AU12" s="7" t="s">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="AV12" s="8" t="s">
         <v>111</v>
@@ -3803,7 +3949,7 @@
         <v>115</v>
       </c>
       <c r="BA12" s="7" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="BB12" s="7" t="s">
         <v>116</v>
@@ -4074,7 +4220,7 @@
         <v>227</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>37</v>
@@ -4209,7 +4355,7 @@
         <v>109</v>
       </c>
       <c r="AU14" s="7" t="s">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="AV14" s="8" t="s">
         <v>111</v>
@@ -4227,7 +4373,7 @@
         <v>115</v>
       </c>
       <c r="BA14" s="7" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="BB14" s="7" t="s">
         <v>116</v>
@@ -4582,7 +4728,7 @@
         <v>46</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="s">
         <v>46</v>
@@ -4922,7 +5068,7 @@
         <v>229</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>178</v>
@@ -5057,7 +5203,7 @@
         <v>109</v>
       </c>
       <c r="AU18" s="7" t="s">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="AV18" s="8" t="s">
         <v>111</v>
@@ -5075,7 +5221,7 @@
         <v>115</v>
       </c>
       <c r="BA18" s="7" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="BB18" s="7" t="s">
         <v>116</v>
@@ -5346,7 +5492,7 @@
         <v>230</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>178</v>
@@ -5481,7 +5627,7 @@
         <v>109</v>
       </c>
       <c r="AU20" s="7" t="s">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="AV20" s="8" t="s">
         <v>111</v>
@@ -5499,7 +5645,7 @@
         <v>115</v>
       </c>
       <c r="BA20" s="7" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="BB20" s="7" t="s">
         <v>116</v>
@@ -5770,7 +5916,7 @@
         <v>232</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>178</v>
@@ -5905,7 +6051,7 @@
         <v>109</v>
       </c>
       <c r="AU22" s="7" t="s">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="AV22" s="8" t="s">
         <v>111</v>
@@ -5923,7 +6069,7 @@
         <v>115</v>
       </c>
       <c r="BA22" s="7" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="BB22" s="7" t="s">
         <v>116</v>
@@ -7135,7 +7281,7 @@
         <v>107</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>201</v>
+        <v>334</v>
       </c>
       <c r="AH28" s="9" t="s">
         <v>48</v>
@@ -7559,7 +7705,7 @@
         <v>107</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>201</v>
+        <v>334</v>
       </c>
       <c r="AH30" s="9" t="s">
         <v>48</v>
@@ -7616,7 +7762,7 @@
         <v>205</v>
       </c>
       <c r="AZ30" s="8" t="s">
-        <v>206</v>
+        <v>335</v>
       </c>
       <c r="BA30" s="7" t="s">
         <v>46</v>
@@ -7980,7 +8126,7 @@
         <v>107</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>201</v>
+        <v>334</v>
       </c>
       <c r="AG32" s="9" t="s">
         <v>48</v>
@@ -8407,7 +8553,7 @@
         <v>107</v>
       </c>
       <c r="AG34" s="6" t="s">
-        <v>201</v>
+        <v>334</v>
       </c>
       <c r="AH34" s="9" t="s">
         <v>48</v>
@@ -8464,7 +8610,7 @@
         <v>205</v>
       </c>
       <c r="AZ34" s="8" t="s">
-        <v>206</v>
+        <v>335</v>
       </c>
       <c r="BA34" s="7" t="s">
         <v>46</v>
@@ -8831,7 +8977,7 @@
         <v>107</v>
       </c>
       <c r="AG36" s="6" t="s">
-        <v>201</v>
+        <v>334</v>
       </c>
       <c r="AH36" s="9" t="s">
         <v>48</v>
@@ -8888,7 +9034,7 @@
         <v>205</v>
       </c>
       <c r="AZ36" s="8" t="s">
-        <v>206</v>
+        <v>335</v>
       </c>
       <c r="BA36" s="7" t="s">
         <v>46</v>
@@ -9255,7 +9401,7 @@
         <v>107</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>201</v>
+        <v>334</v>
       </c>
       <c r="AH38" s="9" t="s">
         <v>48</v>
@@ -9312,7 +9458,7 @@
         <v>205</v>
       </c>
       <c r="AZ38" s="8" t="s">
-        <v>206</v>
+        <v>335</v>
       </c>
       <c r="BA38" s="7" t="s">
         <v>46</v>
@@ -9679,7 +9825,7 @@
         <v>107</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>201</v>
+        <v>334</v>
       </c>
       <c r="AH40" s="9" t="s">
         <v>48</v>
@@ -9736,7 +9882,7 @@
         <v>205</v>
       </c>
       <c r="AZ40" s="8" t="s">
-        <v>206</v>
+        <v>335</v>
       </c>
       <c r="BA40" s="7" t="s">
         <v>46</v>
@@ -11296,7 +11442,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>271</v>
       </c>
@@ -18299,10 +18445,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ24"/>
+  <dimension ref="A1:BR24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I2"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18313,7 +18459,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18521,8 +18667,11 @@
       <c r="BQ1" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="BR1" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:69" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>208</v>
       </c>
@@ -18730,8 +18879,11 @@
       <c r="BQ2" t="s">
         <v>46</v>
       </c>
+      <c r="BR2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -18939,8 +19091,11 @@
       <c r="BQ3" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="BR3" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="1:69" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>210</v>
       </c>
@@ -19148,8 +19303,11 @@
       <c r="BQ4" t="s">
         <v>46</v>
       </c>
+      <c r="BR4" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -19357,8 +19515,11 @@
       <c r="BQ5" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="BR5" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
-    <row r="6" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>211</v>
       </c>
@@ -19566,8 +19727,11 @@
       <c r="BQ6" s="22" t="s">
         <v>166</v>
       </c>
+      <c r="BR6" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="7" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
@@ -19775,8 +19939,11 @@
       <c r="BQ7" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="BR7" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="8" spans="1:69" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>212</v>
       </c>
@@ -19984,8 +20151,11 @@
       <c r="BQ8" t="s">
         <v>46</v>
       </c>
+      <c r="BR8" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="9" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
@@ -20193,8 +20363,11 @@
       <c r="BQ9" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="BR9" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="1:69" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>213</v>
       </c>
@@ -20402,8 +20575,11 @@
       <c r="BQ10" t="s">
         <v>46</v>
       </c>
+      <c r="BR10" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="11" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
@@ -20611,8 +20787,11 @@
       <c r="BQ11" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="BR11" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="12" spans="1:69" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>214</v>
       </c>
@@ -20820,8 +20999,11 @@
       <c r="BQ12" t="s">
         <v>46</v>
       </c>
+      <c r="BR12" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
@@ -21029,8 +21211,11 @@
       <c r="BQ13" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="BR13" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="14" spans="1:69" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>215</v>
       </c>
@@ -21238,8 +21423,11 @@
       <c r="BQ14" t="s">
         <v>46</v>
       </c>
+      <c r="BR14" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="15" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
@@ -21447,8 +21635,11 @@
       <c r="BQ15" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="BR15" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="16" spans="1:69" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>216</v>
       </c>
@@ -21656,8 +21847,11 @@
       <c r="BQ16" t="s">
         <v>46</v>
       </c>
+      <c r="BR16" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="17" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
@@ -21865,8 +22059,11 @@
       <c r="BQ17" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="BR17" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="18" spans="1:69" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>218</v>
       </c>
@@ -22074,8 +22271,11 @@
       <c r="BQ18" t="s">
         <v>46</v>
       </c>
+      <c r="BR18" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="19" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:70" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>0</v>
       </c>
@@ -22283,8 +22483,11 @@
       <c r="BQ19" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="BR19" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="20" spans="1:69" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>219</v>
       </c>
@@ -22492,8 +22695,11 @@
       <c r="BQ20" t="s">
         <v>46</v>
       </c>
+      <c r="BR20" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="21" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:70" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -22701,8 +22907,11 @@
       <c r="BQ21" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="BR21" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="22" spans="1:69" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:70" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>220</v>
       </c>
@@ -22910,8 +23119,11 @@
       <c r="BQ22" t="s">
         <v>46</v>
       </c>
+      <c r="BR22" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="23" spans="1:69" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:70" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -23119,8 +23331,11 @@
       <c r="BQ23" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="BR23" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
@@ -23326,6 +23541,9 @@
         <v>46</v>
       </c>
       <c r="BQ24" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -23337,10 +23555,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23348,10 +23566,13 @@
     <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23361,8 +23582,32 @@
       <c r="C1" s="16" t="s">
         <v>286</v>
       </c>
+      <c r="D1" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>281</v>
       </c>
@@ -23372,8 +23617,32 @@
       <c r="C2" t="s">
         <v>287</v>
       </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -23383,8 +23652,32 @@
       <c r="C3" s="16" t="s">
         <v>286</v>
       </c>
+      <c r="D3" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>284</v>
       </c>
@@ -23394,8 +23687,32 @@
       <c r="C4" t="s">
         <v>287</v>
       </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>321</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -23405,8 +23722,32 @@
       <c r="C5" s="16" t="s">
         <v>286</v>
       </c>
+      <c r="D5" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>285</v>
       </c>
@@ -23416,8 +23757,32 @@
       <c r="C6" t="s">
         <v>287</v>
       </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>321</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -23427,8 +23792,32 @@
       <c r="C7" s="16" t="s">
         <v>286</v>
       </c>
+      <c r="D7" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>288</v>
       </c>
@@ -23438,8 +23827,32 @@
       <c r="C8" t="s">
         <v>287</v>
       </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>321</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -23449,8 +23862,32 @@
       <c r="C9" s="16" t="s">
         <v>286</v>
       </c>
+      <c r="D9" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>289</v>
       </c>
@@ -23460,8 +23897,32 @@
       <c r="C10" t="s">
         <v>287</v>
       </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>321</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -23471,8 +23932,32 @@
       <c r="C11" s="16" t="s">
         <v>286</v>
       </c>
+      <c r="D11" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>290</v>
       </c>
@@ -23481,9 +23966,1084 @@
       </c>
       <c r="C12" t="s">
         <v>287</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>321</v>
+      </c>
+      <c r="K12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>321</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>321</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>321</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>321</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>321</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" t="s">
+        <v>246</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>321</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>321</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28" t="s">
+        <v>305</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" t="s">
+        <v>307</v>
+      </c>
+      <c r="I28" t="s">
+        <v>313</v>
+      </c>
+      <c r="J28" t="s">
+        <v>322</v>
+      </c>
+      <c r="K28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" t="s">
+        <v>310</v>
+      </c>
+      <c r="E30" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" t="s">
+        <v>305</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" t="s">
+        <v>307</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="J30" t="s">
+        <v>322</v>
+      </c>
+      <c r="K30" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" t="s">
+        <v>287</v>
+      </c>
+      <c r="D32" t="s">
+        <v>308</v>
+      </c>
+      <c r="E32" t="s">
+        <v>246</v>
+      </c>
+      <c r="F32" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" t="s">
+        <v>307</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="J32" t="s">
+        <v>322</v>
+      </c>
+      <c r="K32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" t="s">
+        <v>287</v>
+      </c>
+      <c r="D34" t="s">
+        <v>308</v>
+      </c>
+      <c r="E34" t="s">
+        <v>246</v>
+      </c>
+      <c r="F34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" t="s">
+        <v>307</v>
+      </c>
+      <c r="I34" t="s">
+        <v>313</v>
+      </c>
+      <c r="J34" t="s">
+        <v>321</v>
+      </c>
+      <c r="K34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" t="s">
+        <v>308</v>
+      </c>
+      <c r="E36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" t="s">
+        <v>307</v>
+      </c>
+      <c r="I36" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" t="s">
+        <v>321</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" t="s">
+        <v>308</v>
+      </c>
+      <c r="E38" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" t="s">
+        <v>307</v>
+      </c>
+      <c r="I38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" t="s">
+        <v>309</v>
+      </c>
+      <c r="E40" t="s">
+        <v>246</v>
+      </c>
+      <c r="F40" t="s">
+        <v>305</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" t="s">
+        <v>307</v>
+      </c>
+      <c r="I40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K40" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D42" t="s">
+        <v>310</v>
+      </c>
+      <c r="E42" t="s">
+        <v>246</v>
+      </c>
+      <c r="F42" t="s">
+        <v>305</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" t="s">
+        <v>307</v>
+      </c>
+      <c r="I42" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" t="s">
+        <v>322</v>
+      </c>
+      <c r="K42" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="540" windowWidth="13395" windowHeight="3240"/>
+    <workbookView xWindow="360" yWindow="660" windowWidth="13395" windowHeight="3120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="physicianportal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7698" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8207" uniqueCount="357">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -622,9 +622,6 @@
     <t>Amoxicillin 400 MG/5ML Suspension Reconstituted</t>
   </si>
   <si>
-    <t>2010064-1</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -1025,6 +1022,72 @@
   </si>
   <si>
     <t>RN (Nursing)</t>
+  </si>
+  <si>
+    <t>QA137_PastAdministrationResidentDashboardforPRN_ResidentDashoard_EMAR</t>
+  </si>
+  <si>
+    <t>ResidentTabType</t>
+  </si>
+  <si>
+    <t>Past Administrations</t>
+  </si>
+  <si>
+    <t>QA138_PastAdministrationResidentDashboardforFollowUps_ResidentDashoard_EMAR</t>
+  </si>
+  <si>
+    <t>QA139_MissedAdministrationOn_ResidentDashboard_EMAR(ITestContext</t>
+  </si>
+  <si>
+    <t>Missed Administrations</t>
+  </si>
+  <si>
+    <t>routine</t>
+  </si>
+  <si>
+    <t>TabType2</t>
+  </si>
+  <si>
+    <t>TabType3</t>
+  </si>
+  <si>
+    <t>QA140_MissedAdministration_RoutionOrders_ResidentDashboard_EMAR</t>
+  </si>
+  <si>
+    <t>QA141_MissedAdministration_RoutionOrders_PreAdministrationAction_EMAR</t>
+  </si>
+  <si>
+    <t>QA142_MissedAdministration_RoutionOrders_PostAdministrationAction_EMAR</t>
+  </si>
+  <si>
+    <t>QA143_MissedAdministration_PRNOrders_PreAdministrationAction_EMAR</t>
+  </si>
+  <si>
+    <t>QA144_MissedAdministration_PRNOrders_PostAdministrationAction_EMAR</t>
+  </si>
+  <si>
+    <t>QA145_MissedAdministration_AdministeringFollowupsOrders_EMAR</t>
+  </si>
+  <si>
+    <t>QA147_VitalSigns_ResidentDashboard_eMAR</t>
+  </si>
+  <si>
+    <t>Vitals</t>
+  </si>
+  <si>
+    <t>VitalSign</t>
+  </si>
+  <si>
+    <t>VitalSigntext</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Pulse</t>
+  </si>
+  <si>
+    <t>AnOrder</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1134,9 +1197,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1445,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG37" workbookViewId="0">
-      <selection activeCell="AZ41" sqref="AZ41"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="BA12" sqref="BA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1733,7 @@
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
@@ -2097,7 +2157,7 @@
     </row>
     <row r="4" spans="1:70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>37</v>
@@ -2184,7 +2244,7 @@
         <v>46</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="s">
         <v>46</v>
@@ -2521,7 +2581,7 @@
     </row>
     <row r="6" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
@@ -2659,7 +2719,7 @@
         <v>109</v>
       </c>
       <c r="AU6" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AV6" s="8" t="s">
         <v>111</v>
@@ -2677,7 +2737,7 @@
         <v>115</v>
       </c>
       <c r="BA6" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BB6" s="7" t="s">
         <v>116</v>
@@ -2940,12 +3000,12 @@
         <v>141</v>
       </c>
       <c r="BR7" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
@@ -3101,7 +3161,7 @@
         <v>149</v>
       </c>
       <c r="BA8" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BB8" s="11" t="s">
         <v>151</v>
@@ -3369,7 +3429,7 @@
     </row>
     <row r="10" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
@@ -3507,7 +3567,7 @@
         <v>109</v>
       </c>
       <c r="AU10" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AV10" s="8" t="s">
         <v>111</v>
@@ -3525,7 +3585,7 @@
         <v>115</v>
       </c>
       <c r="BA10" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BB10" s="7" t="s">
         <v>116</v>
@@ -3793,7 +3853,7 @@
     </row>
     <row r="12" spans="1:70" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>9</v>
@@ -3931,7 +3991,7 @@
         <v>109</v>
       </c>
       <c r="AU12" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AV12" s="8" t="s">
         <v>111</v>
@@ -3949,7 +4009,7 @@
         <v>115</v>
       </c>
       <c r="BA12" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BB12" s="7" t="s">
         <v>116</v>
@@ -4217,7 +4277,7 @@
     </row>
     <row r="14" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>9</v>
@@ -4355,7 +4415,7 @@
         <v>109</v>
       </c>
       <c r="AU14" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AV14" s="8" t="s">
         <v>111</v>
@@ -4373,7 +4433,7 @@
         <v>115</v>
       </c>
       <c r="BA14" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BB14" s="7" t="s">
         <v>116</v>
@@ -4641,7 +4701,7 @@
     </row>
     <row r="16" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>178</v>
@@ -5065,7 +5125,7 @@
     </row>
     <row r="18" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>9</v>
@@ -5203,7 +5263,7 @@
         <v>109</v>
       </c>
       <c r="AU18" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AV18" s="8" t="s">
         <v>111</v>
@@ -5221,7 +5281,7 @@
         <v>115</v>
       </c>
       <c r="BA18" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BB18" s="7" t="s">
         <v>116</v>
@@ -5489,7 +5549,7 @@
     </row>
     <row r="20" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>9</v>
@@ -5627,7 +5687,7 @@
         <v>109</v>
       </c>
       <c r="AU20" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AV20" s="8" t="s">
         <v>111</v>
@@ -5645,7 +5705,7 @@
         <v>115</v>
       </c>
       <c r="BA20" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BB20" s="7" t="s">
         <v>116</v>
@@ -5913,7 +5973,7 @@
     </row>
     <row r="22" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>9</v>
@@ -6051,7 +6111,7 @@
         <v>109</v>
       </c>
       <c r="AU22" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AV22" s="8" t="s">
         <v>111</v>
@@ -6069,7 +6129,7 @@
         <v>115</v>
       </c>
       <c r="BA22" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BB22" s="7" t="s">
         <v>116</v>
@@ -6337,7 +6397,7 @@
     </row>
     <row r="24" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>190</v>
@@ -6430,7 +6490,7 @@
         <v>107</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AG24" s="9" t="s">
         <v>48</v>
@@ -6714,10 +6774,10 @@
         <v>60</v>
       </c>
       <c r="BD25" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BE25" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="BE25" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="BF25" s="5" t="s">
         <v>62</v>
@@ -6761,7 +6821,7 @@
     </row>
     <row r="26" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>2</v>
@@ -6854,7 +6914,7 @@
         <v>107</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>201</v>
+        <v>333</v>
       </c>
       <c r="AG26" s="9" t="s">
         <v>48</v>
@@ -6884,37 +6944,37 @@
         <v>46</v>
       </c>
       <c r="AP26" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AQ26" s="7" t="s">
         <v>97</v>
       </c>
       <c r="AR26" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS26" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="AS26" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="AT26" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AU26" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AV26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AW26" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AX26" s="8" t="s">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="AY26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AZ26" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA26" s="7" t="s">
         <v>46</v>
@@ -6932,7 +6992,7 @@
         <v>94</v>
       </c>
       <c r="BF26" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BG26" t="s">
         <v>46</v>
@@ -6979,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>10</v>
@@ -7141,16 +7201,16 @@
         <v>83</v>
       </c>
       <c r="BE27" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF27" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BG27" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH27" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="BH27" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="BI27" s="5" t="s">
         <v>46</v>
@@ -7185,7 +7245,7 @@
     </row>
     <row r="28" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>2</v>
@@ -7281,7 +7341,7 @@
         <v>107</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH28" s="9" t="s">
         <v>48</v>
@@ -7311,40 +7371,40 @@
         <v>46</v>
       </c>
       <c r="AQ28" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR28" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AS28" s="7" t="s">
         <v>97</v>
       </c>
       <c r="AT28" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="AU28" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="AV28" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AW28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ28" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="AX28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY28" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AZ28" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="BA28" s="7" t="s">
         <v>46</v>
       </c>
       <c r="BB28" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC28" s="7" t="s">
         <v>46</v>
@@ -7403,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>10</v>
@@ -7565,16 +7625,16 @@
         <v>83</v>
       </c>
       <c r="BE29" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF29" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BG29" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH29" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="BH29" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="BI29" s="5" t="s">
         <v>46</v>
@@ -7609,7 +7669,7 @@
     </row>
     <row r="30" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>2</v>
@@ -7705,7 +7765,7 @@
         <v>107</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH30" s="9" t="s">
         <v>48</v>
@@ -7735,40 +7795,40 @@
         <v>46</v>
       </c>
       <c r="AQ30" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR30" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AS30" s="7" t="s">
         <v>97</v>
       </c>
       <c r="AT30" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="AU30" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="AV30" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AW30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AX30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AY30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ30" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BA30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="BB30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC30" s="7" t="s">
         <v>46</v>
@@ -7950,7 +8010,7 @@
         <v>60</v>
       </c>
       <c r="AR31" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AS31" s="5" t="s">
         <v>46</v>
@@ -8033,7 +8093,7 @@
     </row>
     <row r="32" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>2</v>
@@ -8126,7 +8186,7 @@
         <v>107</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG32" s="9" t="s">
         <v>48</v>
@@ -8251,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>10</v>
@@ -8413,16 +8473,16 @@
         <v>83</v>
       </c>
       <c r="BE33" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF33" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BG33" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH33" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="BH33" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="BI33" s="5" t="s">
         <v>46</v>
@@ -8457,7 +8517,7 @@
     </row>
     <row r="34" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>2</v>
@@ -8553,7 +8613,7 @@
         <v>107</v>
       </c>
       <c r="AG34" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH34" s="9" t="s">
         <v>48</v>
@@ -8583,40 +8643,40 @@
         <v>46</v>
       </c>
       <c r="AQ34" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR34" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AS34" s="7" t="s">
         <v>97</v>
       </c>
       <c r="AT34" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU34" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="AU34" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="AV34" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AW34" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AX34" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AY34" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ34" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BA34" s="7" t="s">
         <v>46</v>
       </c>
       <c r="BB34" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC34" s="7" t="s">
         <v>46</v>
@@ -8675,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>10</v>
@@ -8837,34 +8897,34 @@
         <v>83</v>
       </c>
       <c r="BE35" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF35" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BG35" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH35" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="BH35" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="BI35" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BJ35" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="BK35" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="BK35" s="5" t="s">
+      <c r="BL35" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="BL35" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="BM35" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN35" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="BN35" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="BO35" s="5" t="s">
         <v>46</v>
@@ -8881,7 +8941,7 @@
     </row>
     <row r="36" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>2</v>
@@ -8977,7 +9037,7 @@
         <v>107</v>
       </c>
       <c r="AG36" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH36" s="9" t="s">
         <v>48</v>
@@ -8989,10 +9049,10 @@
         <v>49</v>
       </c>
       <c r="AK36" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL36" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="AL36" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="AM36" s="8" t="s">
         <v>52</v>
@@ -9007,40 +9067,40 @@
         <v>46</v>
       </c>
       <c r="AQ36" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR36" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AS36" s="7" t="s">
         <v>97</v>
       </c>
       <c r="AT36" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU36" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="AU36" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="AV36" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AW36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AX36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AY36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ36" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BA36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="BB36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC36" s="7" t="s">
         <v>46</v>
@@ -9061,22 +9121,22 @@
         <v>94</v>
       </c>
       <c r="BI36" t="s">
+        <v>245</v>
+      </c>
+      <c r="BJ36" t="s">
         <v>246</v>
       </c>
-      <c r="BJ36" t="s">
-        <v>247</v>
-      </c>
       <c r="BK36" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL36" t="s">
         <v>249</v>
       </c>
-      <c r="BL36" t="s">
+      <c r="BM36" t="s">
         <v>250</v>
       </c>
-      <c r="BM36" t="s">
-        <v>251</v>
-      </c>
       <c r="BN36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BO36" t="s">
         <v>46</v>
@@ -9099,7 +9159,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>10</v>
@@ -9261,40 +9321,40 @@
         <v>83</v>
       </c>
       <c r="BE37" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF37" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BG37" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH37" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="BH37" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="BI37" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BJ37" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="BK37" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="BK37" s="5" t="s">
+      <c r="BL37" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="BL37" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="BM37" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN37" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="BN37" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="BO37" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP37" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="BP37" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="BQ37" s="5" t="s">
         <v>46</v>
@@ -9305,7 +9365,7 @@
     </row>
     <row r="38" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>2</v>
@@ -9401,7 +9461,7 @@
         <v>107</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH38" s="9" t="s">
         <v>48</v>
@@ -9413,10 +9473,10 @@
         <v>49</v>
       </c>
       <c r="AK38" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL38" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="AL38" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="AM38" s="8" t="s">
         <v>52</v>
@@ -9431,40 +9491,40 @@
         <v>46</v>
       </c>
       <c r="AQ38" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR38" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AS38" s="7" t="s">
         <v>97</v>
       </c>
       <c r="AT38" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU38" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="AU38" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="AV38" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AW38" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AX38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AY38" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ38" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BA38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="BB38" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC38" s="7" t="s">
         <v>46</v>
@@ -9485,25 +9545,25 @@
         <v>94</v>
       </c>
       <c r="BI38" t="s">
+        <v>245</v>
+      </c>
+      <c r="BJ38" t="s">
         <v>246</v>
       </c>
-      <c r="BJ38" t="s">
-        <v>247</v>
-      </c>
       <c r="BK38" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL38" t="s">
         <v>249</v>
       </c>
-      <c r="BL38" t="s">
+      <c r="BM38" t="s">
         <v>250</v>
       </c>
-      <c r="BM38" t="s">
-        <v>251</v>
-      </c>
       <c r="BN38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BO38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP38" t="s">
         <v>46</v>
@@ -9523,7 +9583,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>10</v>
@@ -9685,40 +9745,40 @@
         <v>83</v>
       </c>
       <c r="BE39" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF39" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BG39" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH39" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="BH39" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="BI39" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BJ39" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="BK39" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="BK39" s="5" t="s">
+      <c r="BL39" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="BL39" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="BM39" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN39" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="BN39" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="BO39" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP39" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="BP39" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="BQ39" s="5" t="s">
         <v>46</v>
@@ -9729,7 +9789,7 @@
     </row>
     <row r="40" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>2</v>
@@ -9825,7 +9885,7 @@
         <v>107</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH40" s="9" t="s">
         <v>48</v>
@@ -9837,10 +9897,10 @@
         <v>49</v>
       </c>
       <c r="AK40" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL40" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="AL40" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="AM40" s="8" t="s">
         <v>52</v>
@@ -9855,40 +9915,40 @@
         <v>46</v>
       </c>
       <c r="AQ40" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR40" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AS40" s="7" t="s">
         <v>97</v>
       </c>
       <c r="AT40" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU40" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="AU40" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="AV40" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AW40" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AX40" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AY40" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ40" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BA40" s="7" t="s">
         <v>46</v>
       </c>
       <c r="BB40" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC40" s="7" t="s">
         <v>46</v>
@@ -9909,25 +9969,25 @@
         <v>94</v>
       </c>
       <c r="BI40" t="s">
+        <v>245</v>
+      </c>
+      <c r="BJ40" t="s">
         <v>246</v>
       </c>
-      <c r="BJ40" t="s">
-        <v>247</v>
-      </c>
       <c r="BK40" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL40" t="s">
         <v>249</v>
       </c>
-      <c r="BL40" t="s">
+      <c r="BM40" t="s">
         <v>250</v>
       </c>
-      <c r="BM40" t="s">
-        <v>251</v>
-      </c>
       <c r="BN40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BO40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP40" t="s">
         <v>46</v>
@@ -9949,8 +10009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR40"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="N37" workbookViewId="0">
+      <selection activeCell="AG41" sqref="AG41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10172,13 +10232,13 @@
     </row>
     <row r="2" spans="1:70" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="6">
+        <v>20120951</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -10596,7 +10656,7 @@
     </row>
     <row r="4" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>37</v>
@@ -10682,8 +10742,8 @@
       <c r="AC4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AD4" s="6" t="s">
-        <v>3</v>
+      <c r="AD4" s="6">
+        <v>20120951</v>
       </c>
       <c r="AE4" t="s">
         <v>46</v>
@@ -10828,7 +10888,7 @@
       <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -11020,10 +11080,10 @@
     </row>
     <row r="6" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
+        <v>269</v>
+      </c>
+      <c r="B6" s="6">
+        <v>20120951</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>37</v>
@@ -11158,7 +11218,7 @@
         <v>109</v>
       </c>
       <c r="AU6" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="AV6" s="8" t="s">
         <v>111</v>
@@ -11176,7 +11236,7 @@
         <v>115</v>
       </c>
       <c r="BA6" s="7" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="BB6" s="7" t="s">
         <v>116</v>
@@ -11439,15 +11499,15 @@
         <v>141</v>
       </c>
       <c r="BR7" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:70" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
+        <v>270</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20120951</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>37</v>
@@ -11600,7 +11660,7 @@
         <v>149</v>
       </c>
       <c r="BA8" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BB8" s="11" t="s">
         <v>151</v>
@@ -11868,10 +11928,10 @@
     </row>
     <row r="10" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>3</v>
+        <v>271</v>
+      </c>
+      <c r="B10" s="6">
+        <v>20120951</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>37</v>
@@ -12006,7 +12066,7 @@
         <v>109</v>
       </c>
       <c r="AU10" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="AV10" s="8" t="s">
         <v>111</v>
@@ -12024,7 +12084,7 @@
         <v>115</v>
       </c>
       <c r="BA10" s="7" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="BB10" s="7" t="s">
         <v>116</v>
@@ -12292,10 +12352,10 @@
     </row>
     <row r="12" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>3</v>
+        <v>272</v>
+      </c>
+      <c r="B12" s="6">
+        <v>20120951</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>37</v>
@@ -12430,7 +12490,7 @@
         <v>109</v>
       </c>
       <c r="AU12" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="AV12" s="8" t="s">
         <v>111</v>
@@ -12448,7 +12508,7 @@
         <v>115</v>
       </c>
       <c r="BA12" s="7" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="BB12" s="7" t="s">
         <v>116</v>
@@ -12716,10 +12776,10 @@
     </row>
     <row r="14" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>3</v>
+        <v>273</v>
+      </c>
+      <c r="B14" s="6">
+        <v>20120951</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>37</v>
@@ -12854,7 +12914,7 @@
         <v>109</v>
       </c>
       <c r="AU14" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="AV14" s="8" t="s">
         <v>111</v>
@@ -12872,7 +12932,7 @@
         <v>115</v>
       </c>
       <c r="BA14" s="7" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="BB14" s="7" t="s">
         <v>116</v>
@@ -13140,7 +13200,7 @@
     </row>
     <row r="16" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>178</v>
@@ -13226,8 +13286,8 @@
       <c r="AC16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AD16" s="6" t="s">
-        <v>3</v>
+      <c r="AD16" s="6">
+        <v>20120951</v>
       </c>
       <c r="AE16" t="s">
         <v>46</v>
@@ -13564,10 +13624,10 @@
     </row>
     <row r="18" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>3</v>
+        <v>275</v>
+      </c>
+      <c r="B18" s="6">
+        <v>20120951</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>178</v>
@@ -13702,7 +13762,7 @@
         <v>109</v>
       </c>
       <c r="AU18" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="AV18" s="8" t="s">
         <v>111</v>
@@ -13720,7 +13780,7 @@
         <v>115</v>
       </c>
       <c r="BA18" s="7" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="BB18" s="7" t="s">
         <v>116</v>
@@ -13988,10 +14048,10 @@
     </row>
     <row r="20" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>3</v>
+        <v>276</v>
+      </c>
+      <c r="B20" s="6">
+        <v>20120951</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>178</v>
@@ -14126,7 +14186,7 @@
         <v>109</v>
       </c>
       <c r="AU20" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="AV20" s="8" t="s">
         <v>111</v>
@@ -14144,7 +14204,7 @@
         <v>115</v>
       </c>
       <c r="BA20" s="7" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="BB20" s="7" t="s">
         <v>116</v>
@@ -14412,10 +14472,10 @@
     </row>
     <row r="22" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>3</v>
+        <v>277</v>
+      </c>
+      <c r="B22" s="6">
+        <v>20120951</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>178</v>
@@ -14550,7 +14610,7 @@
         <v>109</v>
       </c>
       <c r="AU22" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="AV22" s="8" t="s">
         <v>111</v>
@@ -14568,7 +14628,7 @@
         <v>115</v>
       </c>
       <c r="BA22" s="7" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="BB22" s="7" t="s">
         <v>116</v>
@@ -14836,7 +14896,7 @@
     </row>
     <row r="24" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>190</v>
@@ -14928,8 +14988,8 @@
       <c r="AE24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AF24" s="6" t="s">
-        <v>3</v>
+      <c r="AF24" s="6">
+        <v>20120951</v>
       </c>
       <c r="AG24" s="9" t="s">
         <v>48</v>
@@ -15210,16 +15270,16 @@
         <v>83</v>
       </c>
       <c r="BC25" s="5" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="BD25" s="5" t="s">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="BE25" s="5" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="BF25" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="BG25" s="5" t="s">
         <v>46</v>
@@ -15260,7 +15320,7 @@
     </row>
     <row r="26" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>2</v>
@@ -15352,8 +15412,8 @@
       <c r="AE26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AF26" s="6" t="s">
-        <v>201</v>
+      <c r="AF26" s="6">
+        <v>20120951</v>
       </c>
       <c r="AG26" s="9" t="s">
         <v>48</v>
@@ -15383,37 +15443,37 @@
         <v>46</v>
       </c>
       <c r="AP26" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AQ26" s="7" t="s">
         <v>97</v>
       </c>
       <c r="AR26" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS26" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="AS26" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="AT26" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AU26" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AV26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AW26" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AX26" s="8" t="s">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="AY26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AZ26" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA26" s="7" t="s">
         <v>46</v>
@@ -15421,17 +15481,17 @@
       <c r="BB26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="BC26" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>46</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>46</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>46</v>
+      <c r="BC26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF26" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="BG26" t="s">
         <v>46</v>
@@ -15478,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>10</v>
@@ -15640,16 +15700,16 @@
         <v>83</v>
       </c>
       <c r="BE27" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF27" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BG27" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH27" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="BH27" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="BI27" s="5" t="s">
         <v>46</v>
@@ -15684,7 +15744,7 @@
     </row>
     <row r="28" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>2</v>
@@ -15779,8 +15839,8 @@
       <c r="AF28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AG28" s="6" t="s">
-        <v>201</v>
+      <c r="AG28" s="6">
+        <v>20120951</v>
       </c>
       <c r="AH28" s="9" t="s">
         <v>48</v>
@@ -15810,40 +15870,40 @@
         <v>46</v>
       </c>
       <c r="AQ28" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR28" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AS28" s="7" t="s">
         <v>97</v>
       </c>
       <c r="AT28" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="AU28" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="AV28" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AW28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ28" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="AX28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY28" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AZ28" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="BA28" s="7" t="s">
         <v>46</v>
       </c>
       <c r="BB28" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC28" s="7" t="s">
         <v>46</v>
@@ -15902,7 +15962,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>10</v>
@@ -16064,16 +16124,16 @@
         <v>83</v>
       </c>
       <c r="BE29" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF29" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BG29" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH29" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="BH29" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="BI29" s="5" t="s">
         <v>46</v>
@@ -16108,7 +16168,7 @@
     </row>
     <row r="30" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>2</v>
@@ -16203,8 +16263,8 @@
       <c r="AF30" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AG30" s="6" t="s">
-        <v>201</v>
+      <c r="AG30" s="6">
+        <v>20120951</v>
       </c>
       <c r="AH30" s="9" t="s">
         <v>48</v>
@@ -16234,40 +16294,40 @@
         <v>46</v>
       </c>
       <c r="AQ30" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR30" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AS30" s="7" t="s">
         <v>97</v>
       </c>
       <c r="AT30" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="AU30" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="AV30" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AW30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AX30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AY30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ30" s="8" t="s">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="BA30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="BB30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC30" s="7" t="s">
         <v>46</v>
@@ -16449,7 +16509,7 @@
         <v>60</v>
       </c>
       <c r="AR31" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AS31" s="5" t="s">
         <v>46</v>
@@ -16532,7 +16592,7 @@
     </row>
     <row r="32" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>2</v>
@@ -16624,8 +16684,8 @@
       <c r="AE32" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AF32" s="6" t="s">
-        <v>201</v>
+      <c r="AF32" s="6">
+        <v>20120951</v>
       </c>
       <c r="AG32" s="9" t="s">
         <v>48</v>
@@ -16750,7 +16810,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>10</v>
@@ -16912,16 +16972,16 @@
         <v>83</v>
       </c>
       <c r="BE33" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF33" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BG33" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH33" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="BH33" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="BI33" s="5" t="s">
         <v>46</v>
@@ -16956,7 +17016,7 @@
     </row>
     <row r="34" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>2</v>
@@ -17051,8 +17111,8 @@
       <c r="AF34" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AG34" s="6" t="s">
-        <v>201</v>
+      <c r="AG34" s="6">
+        <v>20120951</v>
       </c>
       <c r="AH34" s="9" t="s">
         <v>48</v>
@@ -17082,40 +17142,40 @@
         <v>46</v>
       </c>
       <c r="AQ34" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR34" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AS34" s="7" t="s">
         <v>97</v>
       </c>
       <c r="AT34" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU34" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="AU34" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="AV34" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AW34" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AX34" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AY34" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ34" s="8" t="s">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="BA34" s="7" t="s">
         <v>46</v>
       </c>
       <c r="BB34" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC34" s="7" t="s">
         <v>46</v>
@@ -17174,7 +17234,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>10</v>
@@ -17336,34 +17396,34 @@
         <v>83</v>
       </c>
       <c r="BE35" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF35" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BG35" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH35" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="BH35" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="BI35" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BJ35" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="BK35" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="BK35" s="5" t="s">
+      <c r="BL35" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="BL35" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="BM35" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN35" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="BN35" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="BO35" s="5" t="s">
         <v>46</v>
@@ -17380,7 +17440,7 @@
     </row>
     <row r="36" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>2</v>
@@ -17475,8 +17535,8 @@
       <c r="AF36" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AG36" s="6" t="s">
-        <v>201</v>
+      <c r="AG36" s="6">
+        <v>20120951</v>
       </c>
       <c r="AH36" s="9" t="s">
         <v>48</v>
@@ -17488,10 +17548,10 @@
         <v>49</v>
       </c>
       <c r="AK36" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL36" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="AL36" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="AM36" s="8" t="s">
         <v>52</v>
@@ -17506,40 +17566,40 @@
         <v>46</v>
       </c>
       <c r="AQ36" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR36" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AS36" s="7" t="s">
         <v>97</v>
       </c>
       <c r="AT36" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU36" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="AU36" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="AV36" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AW36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AX36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AY36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ36" s="8" t="s">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="BA36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="BB36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC36" s="7" t="s">
         <v>46</v>
@@ -17560,22 +17620,22 @@
         <v>94</v>
       </c>
       <c r="BI36" t="s">
+        <v>245</v>
+      </c>
+      <c r="BJ36" t="s">
         <v>246</v>
       </c>
-      <c r="BJ36" t="s">
-        <v>247</v>
-      </c>
       <c r="BK36" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL36" t="s">
         <v>249</v>
       </c>
-      <c r="BL36" t="s">
+      <c r="BM36" t="s">
         <v>250</v>
       </c>
-      <c r="BM36" t="s">
-        <v>251</v>
-      </c>
       <c r="BN36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BO36" t="s">
         <v>46</v>
@@ -17598,7 +17658,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>10</v>
@@ -17760,40 +17820,40 @@
         <v>83</v>
       </c>
       <c r="BE37" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF37" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BG37" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH37" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="BH37" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="BI37" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BJ37" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="BK37" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="BK37" s="5" t="s">
+      <c r="BL37" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="BL37" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="BM37" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN37" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="BN37" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="BO37" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP37" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="BP37" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="BQ37" s="5" t="s">
         <v>46</v>
@@ -17804,7 +17864,7 @@
     </row>
     <row r="38" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>2</v>
@@ -17899,8 +17959,8 @@
       <c r="AF38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AG38" s="6" t="s">
-        <v>201</v>
+      <c r="AG38" s="6">
+        <v>20120951</v>
       </c>
       <c r="AH38" s="9" t="s">
         <v>48</v>
@@ -17912,10 +17972,10 @@
         <v>49</v>
       </c>
       <c r="AK38" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL38" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="AL38" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="AM38" s="8" t="s">
         <v>52</v>
@@ -17930,40 +17990,40 @@
         <v>46</v>
       </c>
       <c r="AQ38" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR38" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AS38" s="7" t="s">
         <v>97</v>
       </c>
       <c r="AT38" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU38" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="AU38" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="AV38" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AW38" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AX38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AY38" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ38" s="8" t="s">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="BA38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="BB38" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC38" s="7" t="s">
         <v>46</v>
@@ -17984,25 +18044,25 @@
         <v>94</v>
       </c>
       <c r="BI38" t="s">
+        <v>245</v>
+      </c>
+      <c r="BJ38" t="s">
         <v>246</v>
       </c>
-      <c r="BJ38" t="s">
-        <v>247</v>
-      </c>
       <c r="BK38" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL38" t="s">
         <v>249</v>
       </c>
-      <c r="BL38" t="s">
+      <c r="BM38" t="s">
         <v>250</v>
       </c>
-      <c r="BM38" t="s">
-        <v>251</v>
-      </c>
       <c r="BN38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BO38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP38" t="s">
         <v>46</v>
@@ -18022,7 +18082,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>10</v>
@@ -18184,40 +18244,40 @@
         <v>83</v>
       </c>
       <c r="BE39" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF39" s="5" t="s">
         <v>60</v>
       </c>
       <c r="BG39" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH39" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="BH39" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="BI39" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BJ39" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="BK39" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="BK39" s="5" t="s">
+      <c r="BL39" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="BL39" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="BM39" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN39" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="BN39" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="BO39" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP39" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="BP39" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="BQ39" s="5" t="s">
         <v>46</v>
@@ -18228,7 +18288,7 @@
     </row>
     <row r="40" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>2</v>
@@ -18323,8 +18383,8 @@
       <c r="AF40" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AG40" s="6" t="s">
-        <v>201</v>
+      <c r="AG40" s="6">
+        <v>20120951</v>
       </c>
       <c r="AH40" s="9" t="s">
         <v>48</v>
@@ -18336,10 +18396,10 @@
         <v>49</v>
       </c>
       <c r="AK40" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL40" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="AL40" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="AM40" s="8" t="s">
         <v>52</v>
@@ -18354,40 +18414,40 @@
         <v>46</v>
       </c>
       <c r="AQ40" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR40" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AS40" s="7" t="s">
         <v>97</v>
       </c>
       <c r="AT40" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU40" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="AU40" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="AV40" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AW40" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AX40" s="7" t="s">
         <v>46</v>
       </c>
       <c r="AY40" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ40" s="8" t="s">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="BA40" s="7" t="s">
         <v>46</v>
       </c>
       <c r="BB40" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC40" s="7" t="s">
         <v>46</v>
@@ -18408,25 +18468,25 @@
         <v>94</v>
       </c>
       <c r="BI40" t="s">
+        <v>245</v>
+      </c>
+      <c r="BJ40" t="s">
         <v>246</v>
       </c>
-      <c r="BJ40" t="s">
-        <v>247</v>
-      </c>
       <c r="BK40" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL40" t="s">
         <v>249</v>
       </c>
-      <c r="BL40" t="s">
+      <c r="BM40" t="s">
         <v>250</v>
       </c>
-      <c r="BM40" t="s">
-        <v>251</v>
-      </c>
       <c r="BN40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BO40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BP40" t="s">
         <v>46</v>
@@ -18447,8 +18507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR24"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="AH13" workbookViewId="0">
+      <selection activeCell="BA16" sqref="BA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18467,7 +18527,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>33</v>
@@ -18673,7 +18733,7 @@
     </row>
     <row r="2" spans="1:70" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -19097,7 +19157,7 @@
     </row>
     <row r="4" spans="1:70" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2</v>
@@ -19516,12 +19576,12 @@
         <v>141</v>
       </c>
       <c r="BR5" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:70" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>2</v>
@@ -19945,7 +20005,7 @@
     </row>
     <row r="8" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>2</v>
@@ -20083,7 +20143,7 @@
         <v>109</v>
       </c>
       <c r="AU8" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="AV8" s="8" t="s">
         <v>111</v>
@@ -20101,7 +20161,7 @@
         <v>115</v>
       </c>
       <c r="BA8" s="7" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="BB8" s="7" t="s">
         <v>116</v>
@@ -20369,7 +20429,7 @@
     </row>
     <row r="10" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>2</v>
@@ -20507,7 +20567,7 @@
         <v>109</v>
       </c>
       <c r="AU10" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="AV10" s="8" t="s">
         <v>111</v>
@@ -20525,7 +20585,7 @@
         <v>115</v>
       </c>
       <c r="BA10" s="7" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="BB10" s="7" t="s">
         <v>116</v>
@@ -20793,7 +20853,7 @@
     </row>
     <row r="12" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>2</v>
@@ -20931,7 +20991,7 @@
         <v>109</v>
       </c>
       <c r="AU12" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="AV12" s="8" t="s">
         <v>111</v>
@@ -20949,7 +21009,7 @@
         <v>115</v>
       </c>
       <c r="BA12" s="7" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="BB12" s="7" t="s">
         <v>116</v>
@@ -21217,7 +21277,7 @@
     </row>
     <row r="14" spans="1:70" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>2</v>
@@ -21232,7 +21292,7 @@
         <v>183</v>
       </c>
       <c r="F14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -21641,7 +21701,7 @@
     </row>
     <row r="16" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>2</v>
@@ -21668,7 +21728,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>48</v>
@@ -21779,7 +21839,7 @@
         <v>109</v>
       </c>
       <c r="AU16" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="AV16" s="8" t="s">
         <v>111</v>
@@ -21797,7 +21857,7 @@
         <v>115</v>
       </c>
       <c r="BA16" s="7" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="BB16" s="7" t="s">
         <v>116</v>
@@ -22065,7 +22125,7 @@
     </row>
     <row r="18" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>2</v>
@@ -22203,7 +22263,7 @@
         <v>109</v>
       </c>
       <c r="AU18" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="AV18" s="8" t="s">
         <v>111</v>
@@ -22221,7 +22281,7 @@
         <v>115</v>
       </c>
       <c r="BA18" s="7" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="BB18" s="7" t="s">
         <v>116</v>
@@ -22489,7 +22549,7 @@
     </row>
     <row r="20" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>2</v>
@@ -22627,7 +22687,7 @@
         <v>109</v>
       </c>
       <c r="AU20" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="AV20" s="8" t="s">
         <v>111</v>
@@ -22645,7 +22705,7 @@
         <v>115</v>
       </c>
       <c r="BA20" s="7" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="BB20" s="7" t="s">
         <v>116</v>
@@ -22707,7 +22767,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>17</v>
@@ -22913,7 +22973,7 @@
     </row>
     <row r="22" spans="1:70" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>2</v>
@@ -23123,7 +23183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:70" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -23136,14 +23196,14 @@
       <c r="D23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>1</v>
+      <c r="E23" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>46</v>
@@ -23340,22 +23400,22 @@
         <v>6</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>2</v>
+        <v>356</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>3</v>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
@@ -23555,10 +23615,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23570,1476 +23630,3110 @@
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C2" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>323</v>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>321</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C4" t="s">
         <v>286</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>323</v>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>320</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" t="s">
-        <v>321</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C6" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>323</v>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>320</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>321</v>
-      </c>
-      <c r="K6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" t="s">
         <v>286</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>323</v>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>320</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" t="s">
-        <v>321</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>323</v>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>320</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C10" t="s">
-        <v>287</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s">
-        <v>321</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" t="s">
         <v>286</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>323</v>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>320</v>
+      </c>
+      <c r="K12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>246</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" t="s">
-        <v>321</v>
-      </c>
-      <c r="K12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>323</v>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>320</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" t="s">
-        <v>321</v>
-      </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" t="s">
         <v>286</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D16" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>323</v>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>320</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C16" t="s">
-        <v>287</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" t="s">
-        <v>321</v>
-      </c>
-      <c r="K16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" t="s">
         <v>286</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D18" t="s">
         <v>297</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>323</v>
+      <c r="E18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>320</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C18" t="s">
-        <v>287</v>
-      </c>
-      <c r="D18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E18" t="s">
-        <v>246</v>
-      </c>
-      <c r="F18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" t="s">
-        <v>321</v>
-      </c>
-      <c r="K18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" t="s">
         <v>286</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D20" t="s">
         <v>297</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>323</v>
+      <c r="E20" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>320</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D20" t="s">
-        <v>298</v>
-      </c>
-      <c r="E20" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" t="s">
-        <v>321</v>
-      </c>
-      <c r="K20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" t="s">
         <v>286</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>323</v>
+      <c r="D22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>320</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C22" t="s">
-        <v>287</v>
-      </c>
-      <c r="D22" t="s">
-        <v>300</v>
-      </c>
-      <c r="E22" t="s">
-        <v>246</v>
-      </c>
-      <c r="F22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" t="s">
-        <v>321</v>
-      </c>
-      <c r="K22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" t="s">
         <v>286</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>323</v>
+      <c r="D24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E24" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>320</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C24" t="s">
-        <v>287</v>
-      </c>
-      <c r="D24" t="s">
-        <v>300</v>
-      </c>
-      <c r="E24" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" t="s">
-        <v>321</v>
-      </c>
-      <c r="K24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C26" t="s">
         <v>286</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>323</v>
+      <c r="D26" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>320</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C26" t="s">
-        <v>287</v>
-      </c>
-      <c r="D26" t="s">
-        <v>303</v>
-      </c>
-      <c r="E26" t="s">
-        <v>246</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" t="s">
-        <v>321</v>
-      </c>
-      <c r="K26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" t="s">
         <v>286</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G27" s="16" t="s">
+      <c r="D28" t="s">
+        <v>309</v>
+      </c>
+      <c r="E28" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" t="s">
         <v>306</v>
       </c>
-      <c r="H27" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I27" s="17" t="s">
+      <c r="I28" t="s">
         <v>312</v>
       </c>
-      <c r="J27" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>323</v>
+      <c r="J28" t="s">
+        <v>321</v>
+      </c>
+      <c r="K28" t="s">
+        <v>327</v>
+      </c>
+      <c r="L28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" t="s">
-        <v>310</v>
-      </c>
-      <c r="E28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F28" t="s">
-        <v>305</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" t="s">
-        <v>307</v>
-      </c>
-      <c r="I28" t="s">
-        <v>313</v>
-      </c>
-      <c r="J28" t="s">
-        <v>322</v>
-      </c>
-      <c r="K28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" t="s">
         <v>286</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G29" s="16" t="s">
+      <c r="D30" t="s">
+        <v>309</v>
+      </c>
+      <c r="E30" t="s">
+        <v>245</v>
+      </c>
+      <c r="F30" t="s">
+        <v>304</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" t="s">
         <v>306</v>
       </c>
-      <c r="H29" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I29" s="17" t="s">
+      <c r="I30" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="J29" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>323</v>
+      <c r="J30" t="s">
+        <v>321</v>
+      </c>
+      <c r="K30" t="s">
+        <v>327</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" t="s">
+        <v>46</v>
+      </c>
+      <c r="O30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C30" t="s">
-        <v>287</v>
-      </c>
-      <c r="D30" t="s">
-        <v>310</v>
-      </c>
-      <c r="E30" t="s">
-        <v>246</v>
-      </c>
-      <c r="F30" t="s">
-        <v>305</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" t="s">
-        <v>307</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="J30" t="s">
-        <v>322</v>
-      </c>
-      <c r="K30" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" t="s">
         <v>286</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G31" s="16" t="s">
+      <c r="D32" t="s">
+        <v>307</v>
+      </c>
+      <c r="E32" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" t="s">
         <v>306</v>
       </c>
-      <c r="H31" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>323</v>
+      <c r="I32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="J32" t="s">
+        <v>321</v>
+      </c>
+      <c r="K32" t="s">
+        <v>327</v>
+      </c>
+      <c r="L32" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" t="s">
-        <v>287</v>
-      </c>
-      <c r="D32" t="s">
-        <v>308</v>
-      </c>
-      <c r="E32" t="s">
-        <v>246</v>
-      </c>
-      <c r="F32" t="s">
-        <v>305</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H32" t="s">
-        <v>307</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="J32" t="s">
-        <v>322</v>
-      </c>
-      <c r="K32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P33" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C34" t="s">
         <v>286</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F33" s="16" t="s">
+      <c r="D34" t="s">
+        <v>307</v>
+      </c>
+      <c r="E34" t="s">
+        <v>245</v>
+      </c>
+      <c r="F34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" t="s">
+        <v>306</v>
+      </c>
+      <c r="I34" t="s">
+        <v>312</v>
+      </c>
+      <c r="J34" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" t="s">
+        <v>327</v>
+      </c>
+      <c r="L34" t="s">
+        <v>46</v>
+      </c>
+      <c r="M34" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="H35" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="I35" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P35" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" t="s">
+        <v>286</v>
+      </c>
+      <c r="D36" t="s">
         <v>307</v>
       </c>
-      <c r="I33" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>323</v>
+      <c r="E36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" t="s">
+        <v>306</v>
+      </c>
+      <c r="I36" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" t="s">
+        <v>320</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" t="s">
+        <v>46</v>
+      </c>
+      <c r="N36" t="s">
+        <v>46</v>
+      </c>
+      <c r="O36" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C34" t="s">
-        <v>287</v>
-      </c>
-      <c r="D34" t="s">
-        <v>308</v>
-      </c>
-      <c r="E34" t="s">
-        <v>246</v>
-      </c>
-      <c r="F34" t="s">
-        <v>305</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" t="s">
-        <v>307</v>
-      </c>
-      <c r="I34" t="s">
-        <v>313</v>
-      </c>
-      <c r="J34" t="s">
-        <v>321</v>
-      </c>
-      <c r="K34" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C36" t="s">
-        <v>287</v>
-      </c>
-      <c r="D36" t="s">
-        <v>308</v>
-      </c>
-      <c r="E36" t="s">
-        <v>246</v>
-      </c>
-      <c r="F36" t="s">
-        <v>305</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" t="s">
-        <v>307</v>
-      </c>
-      <c r="I36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J36" t="s">
-        <v>321</v>
-      </c>
-      <c r="K36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P37" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C38" t="s">
         <v>286</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G37" s="16" t="s">
+      <c r="D38" t="s">
+        <v>307</v>
+      </c>
+      <c r="E38" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" t="s">
         <v>306</v>
       </c>
-      <c r="H37" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>323</v>
+      <c r="I38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" t="s">
+        <v>320</v>
+      </c>
+      <c r="K38" t="s">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s">
+        <v>46</v>
+      </c>
+      <c r="M38" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C38" t="s">
-        <v>287</v>
-      </c>
-      <c r="D38" t="s">
-        <v>308</v>
-      </c>
-      <c r="E38" t="s">
-        <v>246</v>
-      </c>
-      <c r="F38" t="s">
-        <v>305</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" t="s">
-        <v>307</v>
-      </c>
-      <c r="I38" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" t="s">
-        <v>321</v>
-      </c>
-      <c r="K38" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P39" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C40" t="s">
         <v>286</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G39" s="16" t="s">
+      <c r="D40" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" t="s">
+        <v>245</v>
+      </c>
+      <c r="F40" t="s">
+        <v>304</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" t="s">
         <v>306</v>
       </c>
-      <c r="H39" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>323</v>
+      <c r="I40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s">
+        <v>329</v>
+      </c>
+      <c r="L40" t="s">
+        <v>46</v>
+      </c>
+      <c r="M40" t="s">
+        <v>46</v>
+      </c>
+      <c r="N40" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C40" t="s">
-        <v>287</v>
-      </c>
-      <c r="D40" t="s">
-        <v>309</v>
-      </c>
-      <c r="E40" t="s">
-        <v>246</v>
-      </c>
-      <c r="F40" t="s">
-        <v>305</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" t="s">
-        <v>307</v>
-      </c>
-      <c r="I40" t="s">
-        <v>46</v>
-      </c>
-      <c r="J40" t="s">
-        <v>321</v>
-      </c>
-      <c r="K40" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O41" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P41" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C42" t="s">
         <v>286</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F41" s="16" t="s">
+      <c r="D42" t="s">
+        <v>309</v>
+      </c>
+      <c r="E42" t="s">
+        <v>245</v>
+      </c>
+      <c r="F42" t="s">
+        <v>304</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" t="s">
+        <v>306</v>
+      </c>
+      <c r="I42" t="s">
+        <v>312</v>
+      </c>
+      <c r="J42" t="s">
+        <v>321</v>
+      </c>
+      <c r="K42" t="s">
+        <v>327</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="M42" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" t="s">
+        <v>46</v>
+      </c>
+      <c r="O42" t="s">
+        <v>46</v>
+      </c>
+      <c r="P42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="H43" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="I43" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P43" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" t="s">
+        <v>286</v>
+      </c>
+      <c r="D44" t="s">
         <v>307</v>
       </c>
-      <c r="I41" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>323</v>
+      <c r="E44" t="s">
+        <v>245</v>
+      </c>
+      <c r="F44" t="s">
+        <v>304</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" t="s">
+        <v>306</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J44" t="s">
+        <v>321</v>
+      </c>
+      <c r="K44" t="s">
+        <v>327</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="M44" t="s">
+        <v>46</v>
+      </c>
+      <c r="N44" t="s">
+        <v>46</v>
+      </c>
+      <c r="O44" t="s">
+        <v>46</v>
+      </c>
+      <c r="P44" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C42" t="s">
-        <v>287</v>
-      </c>
-      <c r="D42" t="s">
-        <v>310</v>
-      </c>
-      <c r="E42" t="s">
-        <v>246</v>
-      </c>
-      <c r="F42" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G45" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="H45" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O45" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P45" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46" t="s">
+        <v>307</v>
+      </c>
+      <c r="E46" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" t="s">
+        <v>304</v>
+      </c>
+      <c r="G46" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H46" t="s">
+        <v>306</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="J46" t="s">
+        <v>321</v>
+      </c>
+      <c r="K46" t="s">
+        <v>327</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="M46" t="s">
+        <v>46</v>
+      </c>
+      <c r="N46" t="s">
+        <v>46</v>
+      </c>
+      <c r="O46" t="s">
+        <v>46</v>
+      </c>
+      <c r="P46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="O47" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P47" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C48" t="s">
+        <v>286</v>
+      </c>
+      <c r="D48" t="s">
         <v>307</v>
       </c>
-      <c r="I42" t="s">
+      <c r="E48" t="s">
+        <v>245</v>
+      </c>
+      <c r="F48" t="s">
+        <v>304</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" t="s">
+        <v>306</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J48" t="s">
+        <v>321</v>
+      </c>
+      <c r="K48" t="s">
+        <v>340</v>
+      </c>
+      <c r="L48" t="s">
+        <v>340</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="O48" t="s">
+        <v>46</v>
+      </c>
+      <c r="P48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M49" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="J42" t="s">
+      <c r="N49" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="O49" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P49" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D50" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" t="s">
+        <v>245</v>
+      </c>
+      <c r="F50" t="s">
+        <v>304</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" t="s">
+        <v>306</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J50" t="s">
+        <v>321</v>
+      </c>
+      <c r="K50" t="s">
+        <v>340</v>
+      </c>
+      <c r="L50" t="s">
+        <v>340</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="O50" t="s">
+        <v>46</v>
+      </c>
+      <c r="P50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K51" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="K42" t="s">
-        <v>328</v>
+      <c r="L51" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="N51" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="O51" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P51" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D52" t="s">
+        <v>307</v>
+      </c>
+      <c r="E52" t="s">
+        <v>245</v>
+      </c>
+      <c r="F52" t="s">
+        <v>304</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" t="s">
+        <v>306</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J52" t="s">
+        <v>321</v>
+      </c>
+      <c r="K52" t="s">
+        <v>340</v>
+      </c>
+      <c r="L52" t="s">
+        <v>340</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="O52" t="s">
+        <v>46</v>
+      </c>
+      <c r="P52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M53" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="N53" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="O53" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P53" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" t="s">
+        <v>286</v>
+      </c>
+      <c r="D54" t="s">
+        <v>307</v>
+      </c>
+      <c r="E54" t="s">
+        <v>245</v>
+      </c>
+      <c r="F54" t="s">
+        <v>304</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" t="s">
+        <v>306</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J54" t="s">
+        <v>321</v>
+      </c>
+      <c r="K54" t="s">
+        <v>340</v>
+      </c>
+      <c r="L54" t="s">
+        <v>340</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="O54" t="s">
+        <v>46</v>
+      </c>
+      <c r="P54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L55" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M55" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="N55" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="O55" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P55" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" t="s">
+        <v>307</v>
+      </c>
+      <c r="E56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F56" t="s">
+        <v>304</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" t="s">
+        <v>306</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J56" t="s">
+        <v>321</v>
+      </c>
+      <c r="K56" t="s">
+        <v>340</v>
+      </c>
+      <c r="L56" t="s">
+        <v>340</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="O56" t="s">
+        <v>46</v>
+      </c>
+      <c r="P56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M57" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="N57" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="O57" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P57" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C58" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" t="s">
+        <v>307</v>
+      </c>
+      <c r="E58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F58" t="s">
+        <v>304</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" t="s">
+        <v>306</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J58" t="s">
+        <v>321</v>
+      </c>
+      <c r="K58" t="s">
+        <v>340</v>
+      </c>
+      <c r="L58" t="s">
+        <v>340</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="O58" t="s">
+        <v>46</v>
+      </c>
+      <c r="P58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M59" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="N59" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="O59" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P59" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C60" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" t="s">
+        <v>307</v>
+      </c>
+      <c r="E60" t="s">
+        <v>245</v>
+      </c>
+      <c r="F60" t="s">
+        <v>304</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" t="s">
+        <v>306</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J60" t="s">
+        <v>321</v>
+      </c>
+      <c r="K60" t="s">
+        <v>340</v>
+      </c>
+      <c r="L60" t="s">
+        <v>340</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="O60" t="s">
+        <v>46</v>
+      </c>
+      <c r="P60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J61" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="L61" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="M61" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="N61" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="O61" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P61" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C62" t="s">
+        <v>286</v>
+      </c>
+      <c r="D62" t="s">
+        <v>307</v>
+      </c>
+      <c r="E62" t="s">
+        <v>245</v>
+      </c>
+      <c r="F62" t="s">
+        <v>304</v>
+      </c>
+      <c r="G62" s="25">
+        <v>100</v>
+      </c>
+      <c r="H62" t="s">
+        <v>306</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J62" t="s">
+        <v>320</v>
+      </c>
+      <c r="K62" t="s">
+        <v>351</v>
+      </c>
+      <c r="L62" t="s">
+        <v>46</v>
+      </c>
+      <c r="M62" t="s">
+        <v>46</v>
+      </c>
+      <c r="N62" t="s">
+        <v>46</v>
+      </c>
+      <c r="O62" t="s">
+        <v>354</v>
+      </c>
+      <c r="P62" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="660" windowWidth="13395" windowHeight="3120" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="660" windowWidth="13395" windowHeight="3120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="physicianportal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8207" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8335" uniqueCount="362">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -865,9 +865,6 @@
     <t>EmarURL</t>
   </si>
   <si>
-    <t>https://devapp.bluestrataemr.com/emar/dashboard</t>
-  </si>
-  <si>
     <t>QA117_UserNamePreferences_TopRightOf_ResidentDahsboard_Or_HomePage</t>
   </si>
   <si>
@@ -997,18 +994,9 @@
     <t>QA133_AdministeringShowFutureRecord_EMAR</t>
   </si>
   <si>
-    <t>InteractionsTask</t>
-  </si>
-  <si>
-    <t>CurrentTask</t>
-  </si>
-  <si>
     <t>QA135_LostOrDisposedMedication_ResidentDashoard_EMAR</t>
   </si>
   <si>
-    <t>Lost/Disposed</t>
-  </si>
-  <si>
     <t>QA136_PastAdministrationResidentDashboardforRoutine_ResidentDashoard_EMAR</t>
   </si>
   <si>
@@ -1088,6 +1076,33 @@
   </si>
   <si>
     <t>AnOrder</t>
+  </si>
+  <si>
+    <t>https://devclient.bluestrataemr.com/qa2/Application/emar/dashboard</t>
+  </si>
+  <si>
+    <t>Current Tasks</t>
+  </si>
+  <si>
+    <t>Interactions</t>
+  </si>
+  <si>
+    <t>Lost / Disposed Med</t>
+  </si>
+  <si>
+    <t>Resident</t>
+  </si>
+  <si>
+    <t>Sebastian Sebsmith</t>
+  </si>
+  <si>
+    <t>QA151_Behavior_Monitoring_on_eMAR</t>
+  </si>
+  <si>
+    <t>behavior</t>
+  </si>
+  <si>
+    <t>QA173_Creation_Of_Med_Inventory</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1130,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1134,12 +1149,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1153,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1198,10 +1207,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2719,7 +2724,7 @@
         <v>109</v>
       </c>
       <c r="AU6" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV6" s="8" t="s">
         <v>111</v>
@@ -2737,7 +2742,7 @@
         <v>115</v>
       </c>
       <c r="BA6" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB6" s="7" t="s">
         <v>116</v>
@@ -3567,7 +3572,7 @@
         <v>109</v>
       </c>
       <c r="AU10" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV10" s="8" t="s">
         <v>111</v>
@@ -3585,7 +3590,7 @@
         <v>115</v>
       </c>
       <c r="BA10" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB10" s="7" t="s">
         <v>116</v>
@@ -3991,7 +3996,7 @@
         <v>109</v>
       </c>
       <c r="AU12" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV12" s="8" t="s">
         <v>111</v>
@@ -4009,7 +4014,7 @@
         <v>115</v>
       </c>
       <c r="BA12" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB12" s="7" t="s">
         <v>116</v>
@@ -4415,7 +4420,7 @@
         <v>109</v>
       </c>
       <c r="AU14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV14" s="8" t="s">
         <v>111</v>
@@ -4433,7 +4438,7 @@
         <v>115</v>
       </c>
       <c r="BA14" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB14" s="7" t="s">
         <v>116</v>
@@ -5263,7 +5268,7 @@
         <v>109</v>
       </c>
       <c r="AU18" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV18" s="8" t="s">
         <v>111</v>
@@ -5281,7 +5286,7 @@
         <v>115</v>
       </c>
       <c r="BA18" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB18" s="7" t="s">
         <v>116</v>
@@ -5687,7 +5692,7 @@
         <v>109</v>
       </c>
       <c r="AU20" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV20" s="8" t="s">
         <v>111</v>
@@ -5705,7 +5710,7 @@
         <v>115</v>
       </c>
       <c r="BA20" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB20" s="7" t="s">
         <v>116</v>
@@ -6111,7 +6116,7 @@
         <v>109</v>
       </c>
       <c r="AU22" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV22" s="8" t="s">
         <v>111</v>
@@ -6129,7 +6134,7 @@
         <v>115</v>
       </c>
       <c r="BA22" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB22" s="7" t="s">
         <v>116</v>
@@ -6914,7 +6919,7 @@
         <v>107</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AG26" s="9" t="s">
         <v>48</v>
@@ -6968,7 +6973,7 @@
         <v>204</v>
       </c>
       <c r="AX26" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AY26" s="7" t="s">
         <v>46</v>
@@ -7341,7 +7346,7 @@
         <v>107</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AH28" s="9" t="s">
         <v>48</v>
@@ -7765,7 +7770,7 @@
         <v>107</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AH30" s="9" t="s">
         <v>48</v>
@@ -7822,7 +7827,7 @@
         <v>204</v>
       </c>
       <c r="AZ30" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="BA30" s="7" t="s">
         <v>46</v>
@@ -8186,7 +8191,7 @@
         <v>107</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AG32" s="9" t="s">
         <v>48</v>
@@ -8613,7 +8618,7 @@
         <v>107</v>
       </c>
       <c r="AG34" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AH34" s="9" t="s">
         <v>48</v>
@@ -8670,7 +8675,7 @@
         <v>204</v>
       </c>
       <c r="AZ34" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="BA34" s="7" t="s">
         <v>46</v>
@@ -9037,7 +9042,7 @@
         <v>107</v>
       </c>
       <c r="AG36" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AH36" s="9" t="s">
         <v>48</v>
@@ -9094,7 +9099,7 @@
         <v>204</v>
       </c>
       <c r="AZ36" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="BA36" s="7" t="s">
         <v>46</v>
@@ -9461,7 +9466,7 @@
         <v>107</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AH38" s="9" t="s">
         <v>48</v>
@@ -9518,7 +9523,7 @@
         <v>204</v>
       </c>
       <c r="AZ38" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="BA38" s="7" t="s">
         <v>46</v>
@@ -9885,7 +9890,7 @@
         <v>107</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AH40" s="9" t="s">
         <v>48</v>
@@ -9942,7 +9947,7 @@
         <v>204</v>
       </c>
       <c r="AZ40" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="BA40" s="7" t="s">
         <v>46</v>
@@ -11218,7 +11223,7 @@
         <v>109</v>
       </c>
       <c r="AU6" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV6" s="8" t="s">
         <v>111</v>
@@ -11236,7 +11241,7 @@
         <v>115</v>
       </c>
       <c r="BA6" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB6" s="7" t="s">
         <v>116</v>
@@ -12066,7 +12071,7 @@
         <v>109</v>
       </c>
       <c r="AU10" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV10" s="8" t="s">
         <v>111</v>
@@ -12084,7 +12089,7 @@
         <v>115</v>
       </c>
       <c r="BA10" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB10" s="7" t="s">
         <v>116</v>
@@ -12490,7 +12495,7 @@
         <v>109</v>
       </c>
       <c r="AU12" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV12" s="8" t="s">
         <v>111</v>
@@ -12508,7 +12513,7 @@
         <v>115</v>
       </c>
       <c r="BA12" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB12" s="7" t="s">
         <v>116</v>
@@ -12914,7 +12919,7 @@
         <v>109</v>
       </c>
       <c r="AU14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV14" s="8" t="s">
         <v>111</v>
@@ -12932,7 +12937,7 @@
         <v>115</v>
       </c>
       <c r="BA14" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB14" s="7" t="s">
         <v>116</v>
@@ -13762,7 +13767,7 @@
         <v>109</v>
       </c>
       <c r="AU18" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV18" s="8" t="s">
         <v>111</v>
@@ -13780,7 +13785,7 @@
         <v>115</v>
       </c>
       <c r="BA18" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB18" s="7" t="s">
         <v>116</v>
@@ -14186,7 +14191,7 @@
         <v>109</v>
       </c>
       <c r="AU20" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV20" s="8" t="s">
         <v>111</v>
@@ -14204,7 +14209,7 @@
         <v>115</v>
       </c>
       <c r="BA20" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB20" s="7" t="s">
         <v>116</v>
@@ -14610,7 +14615,7 @@
         <v>109</v>
       </c>
       <c r="AU22" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV22" s="8" t="s">
         <v>111</v>
@@ -14628,7 +14633,7 @@
         <v>115</v>
       </c>
       <c r="BA22" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB22" s="7" t="s">
         <v>116</v>
@@ -15467,7 +15472,7 @@
         <v>204</v>
       </c>
       <c r="AX26" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AY26" s="7" t="s">
         <v>46</v>
@@ -16321,7 +16326,7 @@
         <v>204</v>
       </c>
       <c r="AZ30" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="BA30" s="7" t="s">
         <v>46</v>
@@ -17169,7 +17174,7 @@
         <v>204</v>
       </c>
       <c r="AZ34" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="BA34" s="7" t="s">
         <v>46</v>
@@ -17593,7 +17598,7 @@
         <v>204</v>
       </c>
       <c r="AZ36" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="BA36" s="7" t="s">
         <v>46</v>
@@ -18017,7 +18022,7 @@
         <v>204</v>
       </c>
       <c r="AZ38" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="BA38" s="7" t="s">
         <v>46</v>
@@ -18441,7 +18446,7 @@
         <v>204</v>
       </c>
       <c r="AZ40" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="BA40" s="7" t="s">
         <v>46</v>
@@ -18507,7 +18512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH13" workbookViewId="0">
+    <sheetView topLeftCell="AH13" workbookViewId="0">
       <selection activeCell="BA16" sqref="BA16"/>
     </sheetView>
   </sheetViews>
@@ -20143,7 +20148,7 @@
         <v>109</v>
       </c>
       <c r="AU8" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV8" s="8" t="s">
         <v>111</v>
@@ -20161,7 +20166,7 @@
         <v>115</v>
       </c>
       <c r="BA8" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB8" s="7" t="s">
         <v>116</v>
@@ -20567,7 +20572,7 @@
         <v>109</v>
       </c>
       <c r="AU10" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV10" s="8" t="s">
         <v>111</v>
@@ -20585,7 +20590,7 @@
         <v>115</v>
       </c>
       <c r="BA10" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB10" s="7" t="s">
         <v>116</v>
@@ -20991,7 +20996,7 @@
         <v>109</v>
       </c>
       <c r="AU12" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV12" s="8" t="s">
         <v>111</v>
@@ -21009,7 +21014,7 @@
         <v>115</v>
       </c>
       <c r="BA12" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB12" s="7" t="s">
         <v>116</v>
@@ -21839,7 +21844,7 @@
         <v>109</v>
       </c>
       <c r="AU16" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV16" s="8" t="s">
         <v>111</v>
@@ -21857,7 +21862,7 @@
         <v>115</v>
       </c>
       <c r="BA16" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB16" s="7" t="s">
         <v>116</v>
@@ -22263,7 +22268,7 @@
         <v>109</v>
       </c>
       <c r="AU18" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV18" s="8" t="s">
         <v>111</v>
@@ -22281,7 +22286,7 @@
         <v>115</v>
       </c>
       <c r="BA18" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB18" s="7" t="s">
         <v>116</v>
@@ -22687,7 +22692,7 @@
         <v>109</v>
       </c>
       <c r="AU20" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV20" s="8" t="s">
         <v>111</v>
@@ -22705,7 +22710,7 @@
         <v>115</v>
       </c>
       <c r="BA20" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BB20" s="7" t="s">
         <v>116</v>
@@ -23400,7 +23405,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>9</v>
@@ -23615,10 +23620,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23634,9 +23639,10 @@
     <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23644,57 +23650,60 @@
         <v>281</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I1" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>353</v>
+        <v>349</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>280</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>282</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -23715,7 +23724,7 @@
         <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K2" t="s">
         <v>46</v>
@@ -23735,8 +23744,11 @@
       <c r="P2" t="s">
         <v>46</v>
       </c>
+      <c r="Q2" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -23744,99 +23756,105 @@
         <v>281</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I3" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P3" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>353</v>
       </c>
+      <c r="C4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" t="s">
-        <v>320</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -23844,99 +23862,105 @@
         <v>281</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F5" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I5" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P5" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>353</v>
       </c>
+      <c r="C6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>319</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>320</v>
-      </c>
-      <c r="K6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -23944,99 +23968,105 @@
         <v>281</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F7" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I7" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P7" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>353</v>
       </c>
+      <c r="C8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>319</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" t="s">
-        <v>320</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -24044,99 +24074,105 @@
         <v>281</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F9" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I9" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P9" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>353</v>
       </c>
+      <c r="C10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>319</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C10" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s">
-        <v>320</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -24144,57 +24180,60 @@
         <v>281</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F11" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I11" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P11" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="C12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -24215,7 +24254,7 @@
         <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K12" t="s">
         <v>46</v>
@@ -24235,8 +24274,11 @@
       <c r="P12" t="s">
         <v>46</v>
       </c>
+      <c r="Q12" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -24244,99 +24286,105 @@
         <v>281</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F13" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="H13" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I13" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P13" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>353</v>
       </c>
+      <c r="C14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>319</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C14" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" t="s">
-        <v>320</v>
-      </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -24344,99 +24392,105 @@
         <v>281</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F15" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="H15" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I15" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P15" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>353</v>
       </c>
+      <c r="C16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>319</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" t="s">
-        <v>320</v>
-      </c>
-      <c r="K16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -24444,60 +24498,63 @@
         <v>281</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F17" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="H17" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I17" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P17" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="C18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E18" t="s">
         <v>245</v>
@@ -24515,7 +24572,7 @@
         <v>46</v>
       </c>
       <c r="J18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K18" t="s">
         <v>46</v>
@@ -24535,8 +24592,11 @@
       <c r="P18" t="s">
         <v>46</v>
       </c>
+      <c r="Q18" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -24544,60 +24604,63 @@
         <v>281</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F19" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="H19" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I19" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P19" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="C20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E20" t="s">
         <v>245</v>
@@ -24615,7 +24678,7 @@
         <v>46</v>
       </c>
       <c r="J20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K20" t="s">
         <v>46</v>
@@ -24635,8 +24698,11 @@
       <c r="P20" t="s">
         <v>46</v>
       </c>
+      <c r="Q20" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -24644,60 +24710,63 @@
         <v>281</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F21" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="H21" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I21" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P21" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="C22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" t="s">
         <v>298</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" t="s">
-        <v>299</v>
       </c>
       <c r="E22" t="s">
         <v>245</v>
@@ -24715,7 +24784,7 @@
         <v>46</v>
       </c>
       <c r="J22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K22" t="s">
         <v>46</v>
@@ -24735,8 +24804,11 @@
       <c r="P22" t="s">
         <v>46</v>
       </c>
+      <c r="Q22" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -24744,60 +24816,63 @@
         <v>281</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F23" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="H23" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I23" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P23" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="C24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E24" t="s">
         <v>245</v>
@@ -24815,7 +24890,7 @@
         <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K24" t="s">
         <v>46</v>
@@ -24835,8 +24910,11 @@
       <c r="P24" t="s">
         <v>46</v>
       </c>
+      <c r="Q24" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -24844,60 +24922,63 @@
         <v>281</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F25" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="H25" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H25" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I25" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P25" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="C26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" t="s">
         <v>301</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D26" t="s">
-        <v>302</v>
       </c>
       <c r="E26" t="s">
         <v>245</v>
@@ -24915,7 +24996,7 @@
         <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K26" t="s">
         <v>46</v>
@@ -24935,8 +25016,11 @@
       <c r="P26" t="s">
         <v>46</v>
       </c>
+      <c r="Q26" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -24944,81 +25028,84 @@
         <v>281</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F27" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="H27" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H27" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I27" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P27" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="C28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D28" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E28" t="s">
         <v>245</v>
       </c>
       <c r="F28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K28" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="L28" t="s">
         <v>46</v>
@@ -25035,8 +25122,11 @@
       <c r="P28" t="s">
         <v>46</v>
       </c>
+      <c r="Q28" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -25044,81 +25134,84 @@
         <v>281</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F29" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="H29" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="I29" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C30" t="s">
+        <v>285</v>
+      </c>
+      <c r="D30" t="s">
         <v>306</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="N29" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="O29" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P29" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C30" t="s">
-        <v>286</v>
-      </c>
-      <c r="D30" t="s">
-        <v>309</v>
       </c>
       <c r="E30" t="s">
         <v>245</v>
       </c>
       <c r="F30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K30" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="L30" t="s">
         <v>46</v>
@@ -25135,8 +25228,11 @@
       <c r="P30" t="s">
         <v>46</v>
       </c>
+      <c r="Q30" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -25144,81 +25240,84 @@
         <v>281</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F31" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="H31" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="I31" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" t="s">
         <v>306</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="N31" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="O31" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P31" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C32" t="s">
-        <v>286</v>
-      </c>
-      <c r="D32" t="s">
-        <v>307</v>
       </c>
       <c r="E32" t="s">
         <v>245</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G32" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K32" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="L32" t="s">
         <v>46</v>
@@ -25235,8 +25334,11 @@
       <c r="P32" t="s">
         <v>46</v>
       </c>
+      <c r="Q32" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -25244,81 +25346,84 @@
         <v>281</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F33" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="H33" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="I33" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P33" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q33" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" t="s">
         <v>306</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="O33" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P33" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C34" t="s">
-        <v>286</v>
-      </c>
-      <c r="D34" t="s">
-        <v>307</v>
       </c>
       <c r="E34" t="s">
         <v>245</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K34" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="L34" t="s">
         <v>46</v>
@@ -25335,90 +25440,96 @@
       <c r="P34" t="s">
         <v>46</v>
       </c>
+      <c r="Q34" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>281</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F35" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="H35" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H35" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I35" s="17" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J35" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P35" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="K35" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P35" s="17" t="s">
+      <c r="B36" s="6" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="C36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D36" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E36" t="s">
         <v>245</v>
       </c>
       <c r="F36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G36" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>311</v>
       </c>
       <c r="J36" t="s">
         <v>320</v>
       </c>
       <c r="K36" t="s">
-        <v>46</v>
+        <v>354</v>
       </c>
       <c r="L36" t="s">
         <v>46</v>
@@ -25435,8 +25546,11 @@
       <c r="P36" t="s">
         <v>46</v>
       </c>
+      <c r="Q36" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -25444,81 +25558,84 @@
         <v>281</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F37" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G37" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="H37" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="I37" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P37" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q37" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C38" t="s">
+        <v>285</v>
+      </c>
+      <c r="D38" t="s">
         <v>306</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L37" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M37" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="N37" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="O37" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P37" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" t="s">
-        <v>286</v>
-      </c>
-      <c r="D38" t="s">
-        <v>307</v>
       </c>
       <c r="E38" t="s">
         <v>245</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I38" t="s">
         <v>46</v>
       </c>
       <c r="J38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="L38" t="s">
         <v>46</v>
@@ -25535,8 +25652,11 @@
       <c r="P38" t="s">
         <v>46</v>
       </c>
+      <c r="Q38" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -25544,81 +25664,84 @@
         <v>281</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F39" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G39" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="H39" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H39" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I39" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P39" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q39" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="C40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E40" t="s">
         <v>245</v>
       </c>
       <c r="F40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G40" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I40" t="s">
         <v>46</v>
       </c>
       <c r="J40" t="s">
-        <v>320</v>
-      </c>
-      <c r="K40" t="s">
-        <v>329</v>
+        <v>319</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="L40" t="s">
         <v>46</v>
@@ -25635,8 +25758,11 @@
       <c r="P40" t="s">
         <v>46</v>
       </c>
+      <c r="Q40" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -25644,84 +25770,87 @@
         <v>281</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F41" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="H41" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H41" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="I41" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P41" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q41" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="C42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E42" t="s">
         <v>245</v>
       </c>
       <c r="F42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G42" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K42" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s">
         <v>46</v>
@@ -25735,8 +25864,11 @@
       <c r="P42" t="s">
         <v>46</v>
       </c>
+      <c r="Q42" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -25744,84 +25876,87 @@
         <v>281</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F43" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="H43" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="I43" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P43" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C44" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" t="s">
         <v>306</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L43" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M43" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="N43" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="O43" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P43" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C44" t="s">
-        <v>286</v>
-      </c>
-      <c r="D44" t="s">
-        <v>307</v>
       </c>
       <c r="E44" t="s">
         <v>245</v>
       </c>
       <c r="F44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G44" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K44" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M44" t="s">
         <v>46</v>
@@ -25835,8 +25970,11 @@
       <c r="P44" t="s">
         <v>46</v>
       </c>
+      <c r="Q44" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -25844,84 +25982,87 @@
         <v>281</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F45" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G45" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="H45" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="I45" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="O45" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P45" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q45" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D46" t="s">
         <v>306</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K45" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L45" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M45" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="N45" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="O45" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P45" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C46" t="s">
-        <v>286</v>
-      </c>
-      <c r="D46" t="s">
-        <v>307</v>
       </c>
       <c r="E46" t="s">
         <v>245</v>
       </c>
       <c r="F46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G46" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K46" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M46" t="s">
         <v>46</v>
@@ -25935,8 +26076,11 @@
       <c r="P46" t="s">
         <v>46</v>
       </c>
+      <c r="Q46" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -25944,90 +26088,93 @@
         <v>281</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F47" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G47" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="H47" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="I47" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="O47" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P47" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q47" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C48" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" t="s">
         <v>306</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L47" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M47" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="N47" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="O47" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P47" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C48" t="s">
-        <v>286</v>
-      </c>
-      <c r="D48" t="s">
-        <v>307</v>
       </c>
       <c r="E48" t="s">
         <v>245</v>
       </c>
       <c r="F48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G48" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K48" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L48" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O48" t="s">
         <v>46</v>
@@ -26035,8 +26182,11 @@
       <c r="P48" t="s">
         <v>46</v>
       </c>
+      <c r="Q48" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -26044,90 +26194,93 @@
         <v>281</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F49" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G49" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="H49" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="I49" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="N49" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="O49" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P49" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q49" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" t="s">
         <v>306</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L49" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M49" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="N49" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="O49" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P49" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C50" t="s">
-        <v>286</v>
-      </c>
-      <c r="D50" t="s">
-        <v>307</v>
       </c>
       <c r="E50" t="s">
         <v>245</v>
       </c>
       <c r="F50" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G50" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K50" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L50" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O50" t="s">
         <v>46</v>
@@ -26135,8 +26288,11 @@
       <c r="P50" t="s">
         <v>46</v>
       </c>
+      <c r="Q50" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -26144,90 +26300,93 @@
         <v>281</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F51" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G51" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="H51" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="I51" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="N51" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="O51" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P51" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q51" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D52" t="s">
         <v>306</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L51" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M51" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="N51" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="O51" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P51" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C52" t="s">
-        <v>286</v>
-      </c>
-      <c r="D52" t="s">
-        <v>307</v>
       </c>
       <c r="E52" t="s">
         <v>245</v>
       </c>
       <c r="F52" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G52" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K52" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L52" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O52" t="s">
         <v>46</v>
@@ -26235,8 +26394,11 @@
       <c r="P52" t="s">
         <v>46</v>
       </c>
+      <c r="Q52" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -26244,90 +26406,93 @@
         <v>281</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F53" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G53" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="H53" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="I53" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M53" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="N53" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="O53" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P53" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q53" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C54" t="s">
+        <v>285</v>
+      </c>
+      <c r="D54" t="s">
         <v>306</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K53" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L53" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M53" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="N53" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="O53" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P53" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C54" t="s">
-        <v>286</v>
-      </c>
-      <c r="D54" t="s">
-        <v>307</v>
       </c>
       <c r="E54" t="s">
         <v>245</v>
       </c>
       <c r="F54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G54" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K54" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L54" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O54" t="s">
         <v>46</v>
@@ -26335,8 +26500,11 @@
       <c r="P54" t="s">
         <v>46</v>
       </c>
+      <c r="Q54" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -26344,90 +26512,93 @@
         <v>281</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F55" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G55" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="H55" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="I55" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L55" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M55" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="N55" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="O55" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P55" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q55" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C56" t="s">
+        <v>285</v>
+      </c>
+      <c r="D56" t="s">
         <v>306</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="J55" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L55" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M55" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="N55" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="O55" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P55" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C56" t="s">
-        <v>286</v>
-      </c>
-      <c r="D56" t="s">
-        <v>307</v>
       </c>
       <c r="E56" t="s">
         <v>245</v>
       </c>
       <c r="F56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G56" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K56" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L56" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O56" t="s">
         <v>46</v>
@@ -26435,8 +26606,11 @@
       <c r="P56" t="s">
         <v>46</v>
       </c>
+      <c r="Q56" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -26444,90 +26618,93 @@
         <v>281</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F57" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G57" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="H57" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="I57" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M57" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="N57" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="O57" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P57" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q57" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C58" t="s">
+        <v>285</v>
+      </c>
+      <c r="D58" t="s">
         <v>306</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="J57" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K57" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L57" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M57" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="N57" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="O57" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P57" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C58" t="s">
-        <v>286</v>
-      </c>
-      <c r="D58" t="s">
-        <v>307</v>
       </c>
       <c r="E58" t="s">
         <v>245</v>
       </c>
       <c r="F58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G58" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K58" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L58" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O58" t="s">
         <v>46</v>
@@ -26535,8 +26712,11 @@
       <c r="P58" t="s">
         <v>46</v>
       </c>
+      <c r="Q58" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -26544,90 +26724,93 @@
         <v>281</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F59" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G59" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="H59" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="I59" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M59" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="N59" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="O59" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P59" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q59" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C60" t="s">
+        <v>285</v>
+      </c>
+      <c r="D60" t="s">
         <v>306</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="J59" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K59" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L59" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M59" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="N59" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="O59" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P59" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C60" t="s">
-        <v>286</v>
-      </c>
-      <c r="D60" t="s">
-        <v>307</v>
       </c>
       <c r="E60" t="s">
         <v>245</v>
       </c>
       <c r="F60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G60" s="25" t="s">
         <v>104</v>
       </c>
       <c r="H60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K60" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L60" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O60" t="s">
         <v>46</v>
@@ -26635,8 +26818,11 @@
       <c r="P60" t="s">
         <v>46</v>
       </c>
+      <c r="Q60" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -26644,96 +26830,314 @@
         <v>281</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>204</v>
       </c>
       <c r="F61" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G61" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="H61" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="I61" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="J61" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L61" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M61" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="N61" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="O61" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P61" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q61" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" t="s">
+        <v>285</v>
+      </c>
+      <c r="D62" t="s">
         <v>306</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="J61" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="K61" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="L61" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="M61" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="N61" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="O61" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P61" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C62" t="s">
-        <v>286</v>
-      </c>
-      <c r="D62" t="s">
-        <v>307</v>
       </c>
       <c r="E62" t="s">
         <v>245</v>
       </c>
       <c r="F62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G62" s="25">
         <v>100</v>
       </c>
       <c r="H62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K62" t="s">
+        <v>347</v>
+      </c>
+      <c r="L62" t="s">
+        <v>46</v>
+      </c>
+      <c r="M62" t="s">
+        <v>46</v>
+      </c>
+      <c r="N62" t="s">
+        <v>46</v>
+      </c>
+      <c r="O62" t="s">
+        <v>350</v>
+      </c>
+      <c r="P62" t="s">
         <v>351</v>
       </c>
-      <c r="L62" t="s">
-        <v>46</v>
-      </c>
-      <c r="M62" t="s">
-        <v>46</v>
-      </c>
-      <c r="N62" t="s">
-        <v>46</v>
-      </c>
-      <c r="O62" t="s">
+      <c r="Q62" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="J63" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L63" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M63" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="N63" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="O63" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P63" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q63" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C64" t="s">
+        <v>285</v>
+      </c>
+      <c r="D64" t="s">
+        <v>296</v>
+      </c>
+      <c r="E64" t="s">
+        <v>245</v>
+      </c>
+      <c r="F64" t="s">
+        <v>303</v>
+      </c>
+      <c r="G64" s="25">
+        <v>100</v>
+      </c>
+      <c r="H64" t="s">
+        <v>305</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="J64" t="s">
+        <v>319</v>
+      </c>
+      <c r="K64" t="s">
         <v>354</v>
       </c>
-      <c r="P62" t="s">
-        <v>355</v>
+      <c r="L64" t="s">
+        <v>46</v>
+      </c>
+      <c r="M64" t="s">
+        <v>46</v>
+      </c>
+      <c r="N64" t="s">
+        <v>46</v>
+      </c>
+      <c r="O64" t="s">
+        <v>350</v>
+      </c>
+      <c r="P64" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="J65" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="K65" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="M65" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="N65" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="O65" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="P65" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q65" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C66" t="s">
+        <v>285</v>
+      </c>
+      <c r="D66" t="s">
+        <v>296</v>
+      </c>
+      <c r="E66" t="s">
+        <v>245</v>
+      </c>
+      <c r="F66" t="s">
+        <v>303</v>
+      </c>
+      <c r="G66" s="25">
+        <v>100</v>
+      </c>
+      <c r="H66" t="s">
+        <v>305</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="J66" t="s">
+        <v>319</v>
+      </c>
+      <c r="K66" t="s">
+        <v>354</v>
+      </c>
+      <c r="L66" t="s">
+        <v>46</v>
+      </c>
+      <c r="M66" t="s">
+        <v>46</v>
+      </c>
+      <c r="N66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O66" t="s">
+        <v>350</v>
+      </c>
+      <c r="P66" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="660" windowWidth="13395" windowHeight="3120" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="660" windowWidth="13395" windowHeight="3120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="physicianportal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8335" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8755" uniqueCount="363">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -1103,6 +1103,9 @@
   </si>
   <si>
     <t>QA173_Creation_Of_Med_Inventory</t>
+  </si>
+  <si>
+    <t>Gen_QA213_HelpMenuWith_HelpSiteAbout</t>
   </si>
 </sst>
 </file>
@@ -1508,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR40"/>
+  <dimension ref="A1:BR42"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="BA12" sqref="BA12"/>
+    <sheetView topLeftCell="AZ38" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:BR42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10004,6 +10007,430 @@
         <v>46</v>
       </c>
     </row>
+    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BP41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR41" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B42" t="s">
+        <v>285</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" t="s">
+        <v>46</v>
+      </c>
+      <c r="L42" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" t="s">
+        <v>46</v>
+      </c>
+      <c r="O42" t="s">
+        <v>46</v>
+      </c>
+      <c r="P42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>46</v>
+      </c>
+      <c r="R42" t="s">
+        <v>46</v>
+      </c>
+      <c r="S42" t="s">
+        <v>46</v>
+      </c>
+      <c r="T42" t="s">
+        <v>46</v>
+      </c>
+      <c r="U42" t="s">
+        <v>46</v>
+      </c>
+      <c r="V42" t="s">
+        <v>46</v>
+      </c>
+      <c r="W42" t="s">
+        <v>46</v>
+      </c>
+      <c r="X42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10012,10 +10439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR40"/>
+  <dimension ref="A1:BR42"/>
   <sheetViews>
-    <sheetView topLeftCell="N37" workbookViewId="0">
-      <selection activeCell="AG41" sqref="AG41"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:BR42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18503,6 +18930,430 @@
         <v>46</v>
       </c>
     </row>
+    <row r="41" spans="1:70" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BP41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR41" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B42" t="s">
+        <v>285</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" t="s">
+        <v>46</v>
+      </c>
+      <c r="L42" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" t="s">
+        <v>46</v>
+      </c>
+      <c r="O42" t="s">
+        <v>46</v>
+      </c>
+      <c r="P42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>46</v>
+      </c>
+      <c r="R42" t="s">
+        <v>46</v>
+      </c>
+      <c r="S42" t="s">
+        <v>46</v>
+      </c>
+      <c r="T42" t="s">
+        <v>46</v>
+      </c>
+      <c r="U42" t="s">
+        <v>46</v>
+      </c>
+      <c r="V42" t="s">
+        <v>46</v>
+      </c>
+      <c r="W42" t="s">
+        <v>46</v>
+      </c>
+      <c r="X42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ42" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18510,10 +19361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR24"/>
+  <dimension ref="A1:BR26"/>
   <sheetViews>
-    <sheetView topLeftCell="AH13" workbookViewId="0">
-      <selection activeCell="BA16" sqref="BA16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:BR26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23612,6 +24463,430 @@
         <v>46</v>
       </c>
     </row>
+    <row r="25" spans="1:70" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BP25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR25" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B26" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>46</v>
+      </c>
+      <c r="R26" t="s">
+        <v>46</v>
+      </c>
+      <c r="S26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T26" t="s">
+        <v>46</v>
+      </c>
+      <c r="U26" t="s">
+        <v>46</v>
+      </c>
+      <c r="V26" t="s">
+        <v>46</v>
+      </c>
+      <c r="W26" t="s">
+        <v>46</v>
+      </c>
+      <c r="X26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23622,7 +24897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="660" windowWidth="13395" windowHeight="3120" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="660" windowWidth="13395" windowHeight="3120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="physicianportal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8755" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8757" uniqueCount="364">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -1106,13 +1106,16 @@
   </si>
   <si>
     <t>Gen_QA213_HelpMenuWith_HelpSiteAbout</t>
+  </si>
+  <si>
+    <t>Amoxicill-Clarithro-Lansopraz Miscellaneous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,6 +1134,12 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1165,7 +1174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1210,6 +1219,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1513,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR42"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ38" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:BR42"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6827,7 +6837,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:70" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:70" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>230</v>
       </c>
@@ -6861,8 +6871,8 @@
       <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>200</v>
+      <c r="L26" s="26" t="s">
+        <v>363</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>183</v>
@@ -6922,7 +6932,7 @@
         <v>107</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>329</v>
+        <v>9</v>
       </c>
       <c r="AG26" s="9" t="s">
         <v>48</v>
@@ -10441,8 +10451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR42"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:BR42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15750,7 +15760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:70" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:70" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>260</v>
       </c>
@@ -15784,8 +15794,8 @@
       <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>200</v>
+      <c r="L26" s="26" t="s">
+        <v>363</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>183</v>
@@ -18391,8 +18401,8 @@
       <c r="AF38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AG38" s="6">
-        <v>20120951</v>
+      <c r="AG38" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="AH38" s="9" t="s">
         <v>48</v>
@@ -18815,8 +18825,8 @@
       <c r="AF40" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AG40" s="6">
-        <v>20120951</v>
+      <c r="AG40" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="AH40" s="9" t="s">
         <v>48</v>
@@ -19363,7 +19373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:BR26"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="660" windowWidth="13395" windowHeight="3120" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="660" windowWidth="13395" windowHeight="3120"/>
   </bookViews>
   <sheets>
     <sheet name="physicianportal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8757" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8756" uniqueCount="363">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -1106,16 +1106,13 @@
   </si>
   <si>
     <t>Gen_QA213_HelpMenuWith_HelpSiteAbout</t>
-  </si>
-  <si>
-    <t>Amoxicill-Clarithro-Lansopraz Miscellaneous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,12 +1131,6 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1174,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1219,7 +1210,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1523,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR42"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="O26" workbookViewId="0">
+      <selection activeCell="AF26" sqref="AF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6837,7 +6827,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:70" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>230</v>
       </c>
@@ -6871,8 +6861,8 @@
       <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="L26" s="26" t="s">
-        <v>363</v>
+      <c r="L26" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>183</v>
@@ -6931,8 +6921,8 @@
       <c r="AE26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AF26" s="6" t="s">
-        <v>9</v>
+      <c r="AF26" s="6">
+        <v>20120951</v>
       </c>
       <c r="AG26" s="9" t="s">
         <v>48</v>
@@ -10451,8 +10441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AF26" sqref="AF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15760,7 +15750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:70" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:70" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>260</v>
       </c>
@@ -15794,8 +15784,8 @@
       <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="L26" s="26" t="s">
-        <v>363</v>
+      <c r="L26" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>183</v>
@@ -19366,6 +19356,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="660" windowWidth="13395" windowHeight="3120"/>
+    <workbookView xWindow="360" yWindow="780" windowWidth="13395" windowHeight="3000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="physicianportal" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="emarPortal" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1513,7 +1514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O26" workbookViewId="0">
+    <sheetView topLeftCell="O26" workbookViewId="0">
       <selection activeCell="AF26" sqref="AF26"/>
     </sheetView>
   </sheetViews>
@@ -24898,8 +24899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/BluestrataTestData.xlsx
+++ b/src/test/resources/testdata/BluestrataTestData.xlsx
@@ -13,12 +13,11 @@
     <sheet name="emarPortal" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8756" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8756" uniqueCount="364">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -1107,6 +1106,9 @@
   </si>
   <si>
     <t>Gen_QA213_HelpMenuWith_HelpSiteAbout</t>
+  </si>
+  <si>
+    <t>Barbara Barsmith</t>
   </si>
 </sst>
 </file>
@@ -1514,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR42"/>
   <sheetViews>
-    <sheetView topLeftCell="O26" workbookViewId="0">
-      <selection activeCell="AF26" sqref="AF26"/>
+    <sheetView topLeftCell="AU32" workbookViewId="0">
+      <selection activeCell="AZ34" sqref="AZ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24899,8 +24901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26785,7 +26787,7 @@
         <v>285</v>
       </c>
       <c r="D36" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E36" t="s">
         <v>245</v>
@@ -26824,7 +26826,7 @@
         <v>46</v>
       </c>
       <c r="Q36" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
